--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A78A11-0310-C240-A538-C4325E110CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDA12A36-519F-417B-A701-3F778B7EA6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -22,21 +22,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -54,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -968,6 +954,10 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -975,18 +965,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1523,7 +1513,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="286">
@@ -1579,8 +1569,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1603,14 +1593,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1640,7 +1630,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1742,7 +1732,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1770,7 +1760,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1823,13 +1813,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1865,7 +1855,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1895,16 +1885,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1925,7 +1915,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1947,10 +1937,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1959,10 +1949,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1979,7 +1969,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1991,13 +1981,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2035,7 +2025,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2079,19 +2069,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2116,7 +2106,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2128,10 +2118,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2162,13 +2152,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2177,7 +2167,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2191,7 +2181,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2204,14 +2194,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2407,7 +2397,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2469,7 +2459,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2741,7 +2731,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2771,7 +2761,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3583,182 +3573,182 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="189" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C5" s="192" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B5" s="141" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="192" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45624</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="192" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="192" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="268"/>
-    </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B9" s="140" t="s">
+      <c r="C9" s="193" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="140" t="s">
         <v>217</v>
-      </c>
-      <c r="C9" s="193" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B10" s="140" t="s">
-        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>5634436360</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="243" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="241" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="243" t="s">
-        <v>246</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="B19" s="241" t="s">
-        <v>240</v>
-      </c>
       <c r="C19" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3805,9 +3795,9 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>80418075</v>
@@ -3825,9 +3815,9 @@
       <c r="L25" s="150"/>
       <c r="M25" s="150"/>
     </row>
-    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>55950986</v>
@@ -3845,9 +3835,9 @@
       <c r="L26" s="151"/>
       <c r="M26" s="151"/>
     </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <f>17883440+2615681</f>
@@ -3867,9 +3857,9 @@
       <c r="L27" s="151"/>
       <c r="M27" s="151"/>
     </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3883,9 +3873,9 @@
       <c r="L28" s="151"/>
       <c r="M28" s="151"/>
     </row>
-    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>519122</v>
@@ -3903,9 +3893,9 @@
       <c r="L29" s="151"/>
       <c r="M29" s="151"/>
     </row>
-    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>399206</v>
@@ -3923,9 +3913,9 @@
       <c r="L30" s="151"/>
       <c r="M30" s="151"/>
     </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3939,9 +3929,9 @@
       <c r="L31" s="151"/>
       <c r="M31" s="151"/>
     </row>
-    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
@@ -3955,9 +3945,9 @@
       <c r="L32" s="151"/>
       <c r="M32" s="151"/>
     </row>
-    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
@@ -3971,9 +3961,9 @@
       <c r="L33" s="151"/>
       <c r="M33" s="151"/>
     </row>
-    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -3987,9 +3977,9 @@
       <c r="L34" s="151"/>
       <c r="M34" s="151"/>
     </row>
-    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -4003,9 +3993,9 @@
       <c r="L35" s="151"/>
       <c r="M35" s="151"/>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4019,9 +4009,9 @@
       <c r="L36" s="151"/>
       <c r="M36" s="151"/>
     </row>
-    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4035,9 +4025,9 @@
       <c r="L37" s="151"/>
       <c r="M37" s="151"/>
     </row>
-    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4051,9 +4041,9 @@
       <c r="L38" s="151"/>
       <c r="M38" s="151"/>
     </row>
-    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4067,9 +4057,9 @@
       <c r="L39" s="151"/>
       <c r="M39" s="151"/>
     </row>
-    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4083,9 +4073,9 @@
       <c r="L40" s="151"/>
       <c r="M40" s="151"/>
     </row>
-    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4099,9 +4089,9 @@
       <c r="L41" s="151"/>
       <c r="M41" s="151"/>
     </row>
-    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4115,9 +4105,9 @@
       <c r="L42" s="151"/>
       <c r="M42" s="151"/>
     </row>
-    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4131,9 +4121,9 @@
       <c r="L43" s="151"/>
       <c r="M43" s="151"/>
     </row>
-    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <f>0.2766+0.2766</f>
@@ -4153,17 +4143,17 @@
       <c r="L44" s="251"/>
       <c r="M44" s="251"/>
     </row>
-    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6738461538461543E-2</v>
+        <v>5.9505622250624862E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7917948717948716E-2</v>
+        <v>5.0254928986789467E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4202,23 +4192,23 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4226,9 +4216,9 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4236,9 +4226,9 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4247,9 +4237,9 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4257,9 +4247,9 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4267,9 +4257,9 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4278,9 +4268,9 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4288,9 +4278,9 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4299,9 +4289,9 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4309,24 +4299,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4335,9 +4325,9 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4346,9 +4336,9 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4357,9 +4347,9 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4368,9 +4358,9 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4379,9 +4369,9 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4390,9 +4380,9 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4400,33 +4390,33 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B66" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B66" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4434,12 +4424,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4448,9 +4438,9 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4459,9 +4449,9 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4469,9 +4459,9 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4480,9 +4470,9 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4490,103 +4480,103 @@
       </c>
       <c r="E72" s="250"/>
     </row>
-    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="59"/>
+    </row>
+    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B74" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C73" s="59"/>
-    </row>
-    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="59"/>
+    </row>
+    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B75" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="59"/>
-    </row>
-    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B75" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
-    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="B81" s="86" t="s">
-        <v>67</v>
-      </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
-    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4594,32 +4584,32 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4635,9 +4625,9 @@
         <v>80418075</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4656,9 +4646,9 @@
         <v>55950986</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4677,9 +4667,9 @@
         <v>20499121</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4695,9 +4685,9 @@
         <v>519122</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4716,9 +4706,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4734,9 +4724,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4752,9 +4742,9 @@
         <v>532274.66666666663</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4843,19 +4833,19 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4864,7 +4854,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4879,9 +4869,9 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4893,15 +4883,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.75</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4910,7 +4900,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4919,9 +4909,9 @@
       <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4930,19 +4920,19 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>54935.754509999999</v>
+        <v>56175.330509200001</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4957,7 +4947,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -4966,9 +4956,9 @@
       <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4980,53 +4970,53 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5036,32 +5026,32 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5071,52 +5061,52 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.69575137181535374</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5125,155 +5115,155 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>6.6188436699916855E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>6.4552900576145354E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>25.114308655117185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23.946430300179831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
         <v>0.71247361784670915</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>3.6267609406633192E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8369230769230772E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.9752811125312431E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H28" s="272"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.7699194708971624</v>
+        <v>2.9984011698926851</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.3242854691992259</v>
+        <v>5.7634685583544467</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.2587287892907795</v>
+        <v>3.5275307881090416</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.6298134514775882</v>
+        <v>5.0117117898734325</v>
       </c>
       <c r="H29" s="273"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5281,962 +5271,962 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6311,7 +6301,7 @@
       <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6319,7 +6309,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6327,24 +6317,24 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6352,17 +6342,17 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6381,10 +6371,10 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6395,7 +6385,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6403,10 +6393,10 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6453,10 +6443,10 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6504,10 +6494,10 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6555,10 +6545,10 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6606,10 +6596,10 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6657,10 +6647,10 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6708,10 +6698,10 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6759,10 +6749,10 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6810,10 +6800,10 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6861,10 +6851,10 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6912,10 +6902,10 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6963,10 +6953,10 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7014,10 +7004,10 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7065,10 +7055,10 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7116,10 +7106,10 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7167,10 +7157,10 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7218,10 +7208,10 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7269,10 +7259,10 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7320,10 +7310,10 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7371,10 +7361,10 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7422,10 +7412,10 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7473,10 +7463,10 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7524,10 +7514,10 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7575,10 +7565,10 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7626,10 +7616,10 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7677,10 +7667,10 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7728,10 +7718,10 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7779,10 +7769,10 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7830,10 +7820,10 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7881,10 +7871,10 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7932,10 +7922,10 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -7983,10 +7973,10 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8034,10 +8024,10 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8085,10 +8075,10 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8136,10 +8126,10 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8187,10 +8177,10 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8238,10 +8228,10 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8256,10 +8246,10 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8307,10 +8297,10 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8358,10 +8348,10 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8409,10 +8399,10 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8460,10 +8450,10 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8511,10 +8501,10 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8562,10 +8552,10 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8613,10 +8603,10 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8631,10 +8621,10 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8682,10 +8672,10 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8733,10 +8723,10 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8750,10 +8740,10 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8800,10 +8790,10 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8850,10 +8840,10 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8900,10 +8890,10 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -8950,1260 +8940,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10247,7 +10237,7 @@
       <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10255,14 +10245,14 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10272,12 +10262,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10291,7 +10281,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10299,9 +10289,9 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10315,14 +10305,14 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10330,9 +10320,9 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
@@ -10346,7 +10336,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10355,9 +10345,9 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10369,7 +10359,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10378,16 +10368,16 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10404,34 +10394,34 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="I10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10448,7 +10438,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10457,9 +10447,9 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10476,7 +10466,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10485,9 +10475,9 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10504,7 +10494,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10513,9 +10503,9 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10532,7 +10522,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10541,9 +10531,9 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10560,7 +10550,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10568,9 +10558,9 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10590,9 +10580,9 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10612,9 +10602,9 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10633,9 +10623,9 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10658,9 +10648,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10685,9 +10675,9 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10706,9 +10696,9 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10725,25 +10715,25 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="87"/>
+    </row>
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="G23" s="87"/>
-    </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="23" t="s">
-        <v>53</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10763,9 +10753,9 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10785,16 +10775,16 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10814,7 +10804,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10825,9 +10815,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10847,7 +10837,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10858,9 +10848,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10877,7 +10867,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10888,21 +10878,21 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10918,7 +10908,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10926,9 +10916,9 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10945,7 +10935,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10953,9 +10943,9 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10972,7 +10962,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10980,9 +10970,9 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11002,7 +10992,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11010,9 +11000,9 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11029,7 +11019,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11037,9 +11027,9 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11063,9 +11053,9 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11090,9 +11080,9 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11117,9 +11107,9 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11138,9 +11128,9 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11159,9 +11149,9 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11180,9 +11170,9 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11201,9 +11191,9 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11220,14 +11210,14 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11236,9 +11226,9 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11255,9 +11245,9 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11274,9 +11264,9 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11293,7 +11283,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11304,9 +11294,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11323,7 +11313,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11334,9 +11324,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11353,7 +11343,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11361,9 +11351,9 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11380,7 +11370,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11388,22 +11378,22 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11415,12 +11405,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11439,7 +11429,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11448,9 +11438,9 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11459,9 +11449,9 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11474,9 +11464,9 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11487,12 +11477,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="20" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="20" t="s">
-        <v>93</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11505,7 +11495,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11514,13 +11504,13 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11528,9 +11518,9 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11549,9 +11539,9 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11570,9 +11560,9 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11591,9 +11581,9 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11606,9 +11596,9 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11627,7 +11617,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11637,13 +11627,13 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11651,9 +11641,9 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11672,9 +11662,9 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11687,9 +11677,9 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11708,10 +11698,10 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11719,39 +11709,39 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11770,9 +11760,9 @@
       <c r="I74" s="210"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11800,9 +11790,9 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11821,9 +11811,9 @@
       <c r="I76" s="211"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11851,9 +11841,9 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11881,9 +11871,9 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11912,9 +11902,9 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11941,12 +11931,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11974,9 +11964,9 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12004,9 +11994,9 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12034,9 +12024,9 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12055,9 +12045,9 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12086,9 +12076,9 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12107,30 +12097,30 @@
       <c r="I86" s="210"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9817938599565797E-2</v>
+        <v>4.1759877671307455E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9817938599565797E-2</v>
+        <v>4.1759877671307455E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9817938599565797E-2</v>
+        <v>4.1759877671307455E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12158,32 +12148,32 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6738461538461543E-2</v>
+        <v>5.9505622250624862E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8369230769230772E-2</v>
+        <v>2.9752811125312431E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8369230769230772E-2</v>
+        <v>2.9752811125312431E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
       <c r="B91" s="106" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -12191,32 +12181,32 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
@@ -12230,24 +12220,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.5544675724531807</v>
+        <v>7.0951244047906581</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.5544675724531807</v>
+        <v>7.0951244047906581</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12255,26 +12245,26 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>4.4184001892721412</v>
+        <v>4.7704088084070682</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>4.4184001892721412</v>
+        <v>4.7704088084070682</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12285,51 +12275,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>18361099.977758747</v>
+        <v>19875647.733541038</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.2587287892907795</v>
+        <v>3.5275307881090416</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.2587287892907795</v>
+        <v>3.5275307881090416</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.6298134514775882</v>
+        <v>5.0117117898734325</v>
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12345,9 +12335,9 @@
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12366,164 +12356,164 @@
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>18361099.977758747</v>
+        <v>19875647.733541038</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.7699194708971624</v>
+        <v>2.9984011698926851</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.2587287892907795</v>
+        <v>3.5275307881090416</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.2587287892907795</v>
+        <v>3.5275307881090416</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.2587287892907795</v>
+        <v>3.5275307881090412</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.6298134514775882</v>
+        <v>5.0117117898734325</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>12377311.615352178</v>
+        <v>13363397.117725052</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.8672169141421187</v>
+        <v>2.0159758357917266</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.1967257813436691</v>
+        <v>2.3717362774020314</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.1967257813436691</v>
+        <v>2.3717362774020314</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.1967257813436691</v>
+        <v>2.3717362774020314</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.1209809804043243</v>
+        <v>3.3696257744919951</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>15369205.796555461</v>
+        <v>16619522.425633045</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.3185681925196406</v>
+        <v>2.5071885028422058</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.7277272853172243</v>
+        <v>2.9496335327555365</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.7277272853172243</v>
+        <v>2.9496335327555365</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.7277272853172243</v>
+        <v>2.9496335327555361</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.8753972159409562</v>
+        <v>4.1906687821827138</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDA12A36-519F-417B-A701-3F778B7EA6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E95AA8A0-B85F-4B54-8A10-5FFF6FC72D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -947,10 +947,10 @@
     <t>康师傅控股</t>
   </si>
   <si>
+    <t>C0002</t>
+  </si>
+  <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>C0002</t>
   </si>
   <si>
     <t>CN</t>
@@ -3569,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3632,7 +3632,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3648,7 +3648,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4149,11 +4149,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9505622250624862E-2</v>
+        <v>5.9088905456056641E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0254928986789467E-2</v>
+        <v>4.9902994629554706E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4829,8 +4829,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.9700000000000006</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>56175.330509200001</v>
+        <v>56569.741054399994</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4973,7 +4973,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.946430300179831</v>
+        <v>24.115309374839001</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9752811125312431E-2</v>
+        <v>2.954445272802832E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5218,20 +5218,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9984011698926851</v>
+        <v>2.9941018834573772</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.7634685583544467</v>
+        <v>5.7552045533767053</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.5275307881090416</v>
+        <v>3.5224728040675024</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.0117117898734325</v>
+        <v>5.0045256985884397</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -6295,7 +6295,7 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B19" sqref="B19"/>
@@ -10233,7 +10233,7 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
@@ -12103,17 +12103,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1759877671307455E-2</v>
+        <v>4.1467434004531664E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1759877671307455E-2</v>
+        <v>4.1467434004531664E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1759877671307455E-2</v>
+        <v>4.1467434004531664E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12154,17 +12154,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9505622250624862E-2</v>
+        <v>5.9088905456056641E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9752811125312431E-2</v>
+        <v>2.954445272802832E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9752811125312431E-2</v>
+        <v>2.954445272802832E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12224,14 +12224,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>7.0951244047906581</v>
+        <v>7.0849509922344476</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>7.0951244047906581</v>
+        <v>7.0849509922344476</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12249,14 +12249,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>4.7704088084070682</v>
+        <v>4.7654364317730726</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>4.7704088084070682</v>
+        <v>4.7654364317730726</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12299,21 +12299,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19875647.733541038</v>
+        <v>19847148.84434909</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.5275307881090416</v>
+        <v>3.5224728040675024</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.5275307881090416</v>
+        <v>3.5224728040675024</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0117117898734325</v>
+        <v>5.0045256985884397</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12362,27 +12362,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>19875647.733541038</v>
+        <v>19847148.84434909</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9984011698926851</v>
+        <v>2.9941018834573772</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.5275307881090416</v>
+        <v>3.5224728040675024</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.5275307881090416</v>
+        <v>3.5224728040675024</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.5275307881090412</v>
+        <v>3.5224728040675024</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.0117117898734325</v>
+        <v>5.0045256985884397</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12423,27 +12423,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>13363397.117725052</v>
+        <v>13349467.94598156</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.0159758357917266</v>
+        <v>2.0138745083073979</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3717362774020314</v>
+        <v>2.3692641274204682</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3717362774020314</v>
+        <v>2.3692641274204682</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3717362774020314</v>
+        <v>2.3692641274204682</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.3696257744919951</v>
+        <v>3.3661134867323241</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12484,27 +12484,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>16619522.425633045</v>
+        <v>16598308.395165328</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.5071885028422058</v>
+        <v>2.5039881958823873</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.9496335327555365</v>
+        <v>2.9458684657439855</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.9496335327555365</v>
+        <v>2.9458684657439855</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.9496335327555361</v>
+        <v>2.9458684657439855</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.1906687821827138</v>
+        <v>4.1853195926603819</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E95AA8A0-B85F-4B54-8A10-5FFF6FC72D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B10C8A36-50A7-475F-BC2D-D547606B4DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4149,11 +4149,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9088905456056641E-2</v>
+        <v>5.909441633053511E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9902994629554706E-2</v>
+        <v>4.9907648788188722E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4973,7 +4973,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.115309374839001</v>
+        <v>24.113060491590357</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.954445272802832E-2</v>
+        <v>2.9547208165267555E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5218,20 +5218,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9941018834573772</v>
+        <v>2.9944367233588429</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.7552045533767053</v>
+        <v>5.7558481761392501</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.5224728040675024</v>
+        <v>3.5228667333633448</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.0045256985884397</v>
+        <v>5.0050853705558698</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12103,17 +12103,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1467434004531664E-2</v>
+        <v>4.1471301428068777E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1467434004531664E-2</v>
+        <v>4.1471301428068777E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1467434004531664E-2</v>
+        <v>4.1471301428068777E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12154,17 +12154,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9088905456056641E-2</v>
+        <v>5.909441633053511E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.954445272802832E-2</v>
+        <v>2.9547208165267555E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.954445272802832E-2</v>
+        <v>2.9547208165267555E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12224,14 +12224,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>7.0849509922344476</v>
+        <v>7.0857433247550077</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>7.0849509922344476</v>
+        <v>7.0857433247550077</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12249,14 +12249,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>4.7654364317730726</v>
+        <v>4.7659446525216556</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>4.7654364317730726</v>
+        <v>4.7659446525216556</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12299,21 +12299,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19847148.84434909</v>
+        <v>19849368.413896855</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.5224728040675024</v>
+        <v>3.5228667333633448</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.5224728040675024</v>
+        <v>3.5228667333633448</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0045256985884397</v>
+        <v>5.0050853705558698</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12362,27 +12362,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>19847148.84434909</v>
+        <v>19849368.413896855</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9941018834573772</v>
+        <v>2.9944367233588429</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.5224728040675024</v>
+        <v>3.5228667333633448</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.5224728040675024</v>
+        <v>3.5228667333633448</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.5224728040675024</v>
+        <v>3.5228667333633448</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.0045256985884397</v>
+        <v>5.0050853705558698</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12423,27 +12423,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>13349467.94598156</v>
+        <v>13350891.630189672</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.0138745083073979</v>
+        <v>2.0140892825101</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3692641274204682</v>
+        <v>2.3695168029530591</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3692641274204682</v>
+        <v>2.3695168029530591</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3692641274204682</v>
+        <v>2.3695168029530591</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.3661134867323241</v>
+        <v>3.366472473519901</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12484,27 +12484,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>16598308.395165328</v>
+        <v>16600130.022043262</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.5039881958823873</v>
+        <v>2.5042630029344712</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.9458684657439855</v>
+        <v>2.9461917681582017</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.9458684657439855</v>
+        <v>2.9461917681582017</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.9458684657439855</v>
+        <v>2.9461917681582017</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.1853195926603819</v>
+        <v>4.1857789220378852</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B10C8A36-50A7-475F-BC2D-D547606B4DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82A18327-FFAE-4840-A1C2-CB867B530FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4149,11 +4149,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.909441633053511E-2</v>
+        <v>5.9092579372375609E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9907648788188722E-2</v>
+        <v>4.9906097401977371E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4973,7 +4973,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.113060491590357</v>
+        <v>24.113810072733894</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9547208165267555E-2</v>
+        <v>2.9546289686187804E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5218,20 +5218,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9944367233588429</v>
+        <v>2.9943251088144223</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.7558481761392501</v>
+        <v>5.7556336328273394</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.5228667333633448</v>
+        <v>3.5227354221346143</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.0050853705558698</v>
+        <v>5.0048988111542085</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12103,17 +12103,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1471301428068777E-2</v>
+        <v>4.1470012286889735E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1471301428068777E-2</v>
+        <v>4.1470012286889735E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1471301428068777E-2</v>
+        <v>4.1470012286889735E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12154,17 +12154,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.909441633053511E-2</v>
+        <v>5.9092579372375609E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9547208165267555E-2</v>
+        <v>2.9546289686187804E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9547208165267555E-2</v>
+        <v>2.9546289686187804E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12224,14 +12224,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>7.0857433247550077</v>
+        <v>7.0854792109713012</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>7.0857433247550077</v>
+        <v>7.0854792109713012</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12249,14 +12249,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>4.7659446525216556</v>
+        <v>4.7657752442079317</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>4.7659446525216556</v>
+        <v>4.7657752442079317</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12299,21 +12299,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19849368.413896855</v>
+        <v>19848628.549135219</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.5228667333633448</v>
+        <v>3.5227354221346143</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.5228667333633448</v>
+        <v>3.5227354221346143</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0050853705558698</v>
+        <v>5.0048988111542085</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12362,27 +12362,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>19849368.413896855</v>
+        <v>19848628.549135219</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9944367233588429</v>
+        <v>2.9943251088144223</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.5228667333633448</v>
+        <v>3.5227354221346143</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.5228667333633448</v>
+        <v>3.5227354221346143</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.5228667333633448</v>
+        <v>3.5227354221346143</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.0050853705558698</v>
+        <v>5.0048988111542085</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12423,27 +12423,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>13350891.630189672</v>
+        <v>13350417.064872053</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.0140892825101</v>
+        <v>2.0140176905186031</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3695168029530591</v>
+        <v>2.3694325770807096</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3695168029530591</v>
+        <v>2.3694325770807096</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3695168029530591</v>
+        <v>2.3694325770807096</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.366472473519901</v>
+        <v>3.3663528102702163</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12484,27 +12484,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>16600130.022043262</v>
+        <v>16599522.807003638</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.5042630029344712</v>
+        <v>2.5041713996665127</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.9461917681582017</v>
+        <v>2.9460839996076622</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.9461917681582017</v>
+        <v>2.9460839996076622</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.9461917681582017</v>
+        <v>2.9460839996076622</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.1857789220378852</v>
+        <v>4.185625810712212</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82A18327-FFAE-4840-A1C2-CB867B530FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9800BF1B-7056-471F-ACB1-B2189025F870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4149,11 +4149,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9092579372375609E-2</v>
+        <v>5.9090742414216128E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9906097401977371E-2</v>
+        <v>4.9904546015766042E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4586,7 +4586,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -4973,7 +4973,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.113810072733894</v>
+        <v>24.114559700481994</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9546289686187804E-2</v>
+        <v>2.9545371207108064E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5218,20 +5218,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9943251088144223</v>
+        <v>2.9942134955139394</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.7556336328273394</v>
+        <v>5.7554190919065027</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.5227354221346143</v>
+        <v>3.5226041123693408</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.0048988111542085</v>
+        <v>5.0047122538317419</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12103,17 +12103,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1470012286889735E-2</v>
+        <v>4.1468723145710699E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1470012286889735E-2</v>
+        <v>4.1468723145710699E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1470012286889735E-2</v>
+        <v>4.1468723145710699E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12154,17 +12154,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9092579372375609E-2</v>
+        <v>5.9090742414216128E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9546289686187804E-2</v>
+        <v>2.9545371207108064E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9546289686187804E-2</v>
+        <v>2.9545371207108064E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12224,14 +12224,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>7.0854792109713012</v>
+        <v>7.085215100131129</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>7.0854792109713012</v>
+        <v>7.085215100131129</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12249,14 +12249,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>4.7657752442079317</v>
+        <v>4.7656058372917398</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>4.7657752442079317</v>
+        <v>4.7656058372917398</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12299,21 +12299,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19848628.549135219</v>
+        <v>19847888.692619339</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.5227354221346143</v>
+        <v>3.5226041123693408</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.5227354221346143</v>
+        <v>3.5226041123693408</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0048988111542085</v>
+        <v>5.0047122538317419</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12362,27 +12362,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>19848628.549135219</v>
+        <v>19847888.692619339</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9943251088144223</v>
+        <v>2.9942134955139394</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.5227354221346143</v>
+        <v>3.5226041123693408</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.5227354221346143</v>
+        <v>3.5226041123693408</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.5227354221346143</v>
+        <v>3.5226041123693408</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.0048988111542085</v>
+        <v>5.0047122538317419</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12423,27 +12423,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>13350417.064872053</v>
+        <v>13349942.503469355</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.0140176905186031</v>
+        <v>2.0139460991177032</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3694325770807096</v>
+        <v>2.3693483519031804</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3694325770807096</v>
+        <v>2.3693483519031804</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3694325770807096</v>
+        <v>2.3693483519031804</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.3663528102702163</v>
+        <v>3.3662331480076926</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12484,27 +12484,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>16599522.807003638</v>
+        <v>16598915.598044345</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.5041713996665127</v>
+        <v>2.5040797973158213</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.9460839996076622</v>
+        <v>2.9459762321362604</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.9460839996076622</v>
+        <v>2.9459762321362604</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.9460839996076622</v>
+        <v>2.9459762321362604</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.185625810712212</v>
+        <v>4.1854727009197177</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9800BF1B-7056-471F-ACB1-B2189025F870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{914EA71B-74BE-4400-A30D-B84F6CFEDA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4149,11 +4149,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9090742414216128E-2</v>
+        <v>5.9088905456056641E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9904546015766042E-2</v>
+        <v>4.9902994629554706E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4973,7 +4973,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5022,7 +5022,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5069,7 +5069,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.114559700481994</v>
+        <v>24.115309374839001</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9545371207108064E-2</v>
+        <v>2.954445272802832E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5218,20 +5218,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9942134955139394</v>
+        <v>3.1242802262163933</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.7554190919065027</v>
+        <v>6.0901721719742383</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.5226041123693408</v>
+        <v>3.6756237955486979</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.0047122538317419</v>
+        <v>5.2958018886732514</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12103,17 +12103,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1468723145710699E-2</v>
+        <v>4.1467434004531664E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1468723145710699E-2</v>
+        <v>4.1467434004531664E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1468723145710699E-2</v>
+        <v>4.1467434004531664E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12154,17 +12154,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9090742414216128E-2</v>
+        <v>5.9088905456056641E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9545371207108064E-2</v>
+        <v>2.954445272802832E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9545371207108064E-2</v>
+        <v>2.954445272802832E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12224,14 +12224,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>7.085215100131129</v>
+        <v>7.3929923397229018</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>7.085215100131129</v>
+        <v>7.3929923397229018</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12249,14 +12249,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>4.7656058372917398</v>
+        <v>4.9726293201110323</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>4.7656058372917398</v>
+        <v>4.9726293201110323</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12299,21 +12299,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19847888.692619339</v>
+        <v>20710068.35932079</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.5226041123693408</v>
+        <v>3.6756237955486979</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.5226041123693408</v>
+        <v>3.6756237955486979</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0047122538317419</v>
+        <v>5.2958018886732514</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12362,27 +12362,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>19847888.692619339</v>
+        <v>20710068.35932079</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9942134955139394</v>
+        <v>3.1242802262163933</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.5226041123693408</v>
+        <v>3.6756237955486979</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.5226041123693408</v>
+        <v>3.6756237955486979</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.5226041123693408</v>
+        <v>3.6756237955486979</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.0047122538317419</v>
+        <v>5.2958018886732514</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12423,27 +12423,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>13349942.503469355</v>
+        <v>13929879.595806843</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.0139460991177032</v>
+        <v>2.1014342695381538</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3693483519031804</v>
+        <v>2.4722756112213577</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3693483519031804</v>
+        <v>2.4722756112213577</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3693483519031804</v>
+        <v>2.4722756112213577</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.3662331480076926</v>
+        <v>3.5620298973694084</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12484,27 +12484,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>16598915.598044345</v>
+        <v>17319973.977563817</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.5040797973158213</v>
+        <v>2.6128572478772734</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.9459762321362604</v>
+        <v>3.0739497033850278</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.9459762321362604</v>
+        <v>3.0739497033850278</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.9459762321362604</v>
+        <v>3.0739497033850278</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.1854727009197177</v>
+        <v>4.4289158930213297</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{914EA71B-74BE-4400-A30D-B84F6CFEDA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B3301C-080B-4026-B6E4-929B8B4F9A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,7 +964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -977,6 +977,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1516,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1816,9 +1817,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2153,6 +2151,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3590,7 +3594,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3598,7 +3602,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3606,7 +3610,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45624</v>
       </c>
     </row>
@@ -3614,7 +3618,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3622,16 +3626,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3639,7 +3643,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>5634436360</v>
       </c>
     </row>
@@ -3647,101 +3651,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>259</v>
       </c>
       <c r="D22" s="24"/>
@@ -3799,395 +3803,395 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>80418075</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>78717420</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>55950986</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>55818003</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <f>17883440+2615681</f>
         <v>20499121</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <f>16809780+2396714</f>
         <v>19206494</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>519122</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>446021</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>399206</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>443522</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.2766+0.2766</f>
         <v>0.55320000000000003</v>
       </c>
-      <c r="D44" s="251">
+      <c r="D44" s="250">
         <f>0.2336+0.2336</f>
         <v>0.4672</v>
       </c>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9088905456056641E-2</v>
-      </c>
-      <c r="D45" s="153">
+        <v>5.9270808987617496E-2</v>
+      </c>
+      <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9902994629554706E-2</v>
-      </c>
-      <c r="E45" s="153" t="str">
+        <v>5.0056619593302411E-2</v>
+      </c>
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4196,10 +4200,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4298,7 +4302,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4310,7 +4314,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4330,7 +4334,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4398,7 +4402,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4410,7 +4414,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4423,7 +4427,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4471,14 +4475,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4562,7 +4566,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4570,19 +4574,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4596,14 +4601,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4615,12 +4620,12 @@
         <f>C25</f>
         <v>80418075</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>80418075</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>80418075</v>
       </c>
@@ -4633,15 +4638,15 @@
         <f>C26</f>
         <v>55950986</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.69575137181535374</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>55950986</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>55950986</v>
       </c>
@@ -4654,15 +4659,15 @@
         <f>C27+C28</f>
         <v>20499121</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.25490688505040687</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>20499121</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>20499121</v>
       </c>
@@ -4675,12 +4680,12 @@
         <f>C29</f>
         <v>519122</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>6.4552900576145354E-3</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>519122</v>
       </c>
@@ -4693,15 +4698,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4714,12 +4719,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4732,12 +4737,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>532274.66666666663</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>6.6188436699916855E-3</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>532274.66666666663</v>
       </c>
@@ -4746,16 +4751,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.55320000000000003</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.27660000000000001</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <v>0.27660000000000001</v>
       </c>
       <c r="G98" s="1"/>
@@ -4873,17 +4878,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0322.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.039999999999999</v>
+        <v>10</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4893,40 +4898,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>康师傅控股</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>5634436360</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>56569.741054399994</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>56344.363599999997</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4934,11 +4939,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4949,22 +4954,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0002</v>
       </c>
@@ -4973,7 +4978,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4993,7 +4998,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5004,7 +5009,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5018,11 +5023,11 @@
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5031,7 +5036,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5042,7 +5047,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5053,10 +5058,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5068,10 +5073,10 @@
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5093,14 +5098,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.69575137181535374</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5108,7 +5113,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.25490688505040687</v>
       </c>
@@ -5119,7 +5124,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>6.6188436699916855E-3</v>
       </c>
@@ -5131,14 +5136,14 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5147,30 +5152,30 @@
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>6.4552900576145354E-3</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.115309374839001</v>
+        <v>24.041298913114371</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.71247361784670915</v>
       </c>
@@ -5179,16 +5184,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>3.6267609406633192E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.954445272802832E-2</v>
+        <v>2.9635404493808748E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5207,10 +5212,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5218,22 +5223,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.1242802262163933</v>
+        <v>2.9931874801296718</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.0901721719742383</v>
+        <v>5.7534469050400503</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.6756237955486979</v>
-      </c>
-      <c r="G29" s="273">
+        <v>3.5213970354466726</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.2958018886732514</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>5.0029973087304791</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5245,17 +5250,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -5265,7 +5270,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5273,17 +5278,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5293,24 +5298,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -5320,7 +5325,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -5339,10 +5344,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -6324,16 +6329,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6347,11 +6352,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6384,7 +6389,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6448,47 +6453,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>80418075</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>78717420</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6550,47 +6555,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>55950986</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>55818003</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6601,47 +6606,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>24467089</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>22899417</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6652,47 +6657,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>20499121</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>19206494</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6703,47 +6708,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6754,47 +6759,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>532274.66666666663</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>591362.66666666663</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6802,50 +6807,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>4.2722899464247725E-2</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>3.9401193958507955E-2</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6853,50 +6858,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>3435693.3333333335</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>3101560.3333333335</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6904,50 +6909,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.1077306143004795</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6958,47 +6963,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7009,47 +7014,47 @@
       <c r="B17" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>519122</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>446021</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7060,47 +7065,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7111,47 +7116,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7162,47 +7167,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7213,47 +7218,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7264,47 +7269,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>2916571.3333333335</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>2655539.3333333335</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7315,47 +7320,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>2.7200707054974894E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>2.5301318310483246E-2</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7366,7 +7371,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>2187428.5</v>
       </c>
@@ -7414,50 +7419,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>9.8297169514089913E-2</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7574,43 +7579,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7625,43 +7630,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7676,43 +7681,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7727,43 +7732,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7778,43 +7783,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7829,43 +7834,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7880,43 +7885,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7982,43 +7987,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8033,43 +8038,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8084,43 +8089,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8182,47 +8187,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8251,47 +8256,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.69575137181535374</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.70909340016479194</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8302,47 +8307,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.25490688505040687</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.24399293066261571</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8353,47 +8358,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8404,47 +8409,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>6.4552900576145354E-3</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>5.6661028778636291E-3</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8455,47 +8460,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>6.6188436699916855E-3</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>7.5124752140843364E-3</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8506,47 +8511,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8557,47 +8562,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>3.6267609406633192E-2</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>3.3735091080644326E-2</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8626,47 +8631,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8677,47 +8682,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8745,47 +8750,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8795,47 +8800,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8845,47 +8850,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.17799050346102741</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>0.16795872476877891</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8895,47 +8900,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10233,8 +10238,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10283,7 +10288,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10380,7 +10385,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10427,7 +10432,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10455,7 +10460,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10483,7 +10488,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10511,7 +10516,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10524,7 +10529,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10539,7 +10544,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10566,7 +10571,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10588,7 +10593,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10610,7 +10615,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10631,7 +10636,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10656,7 +10661,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10683,7 +10688,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10704,7 +10709,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10869,7 +10874,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10898,7 +10903,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10924,7 +10929,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10951,7 +10956,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10978,7 +10983,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10994,7 +10999,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11008,7 +11013,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11035,7 +11040,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11061,7 +11066,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11088,7 +11093,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11115,7 +11120,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11136,7 +11141,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11157,7 +11162,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11178,7 +11183,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11199,7 +11204,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11345,7 +11350,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11454,11 +11459,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11469,11 +11474,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11485,11 +11490,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11585,8 +11590,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11666,8 +11671,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11703,19 +11708,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11725,18 +11730,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11747,17 +11752,17 @@
         <f>Data!C6</f>
         <v>80418075</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>80418075</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>80418075</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11768,23 +11773,23 @@
         <f>Data!C8</f>
         <v>55950986</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.69575137181535374</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>55950986</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.69575137181535374</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>55950986</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.69575137181535374</v>
       </c>
@@ -11794,21 +11799,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>24467089</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>24467089</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>24467089</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11819,23 +11824,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>20499121</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.25490688505040687</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>20499121</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.25490688505040687</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>20499121</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.25490688505040687</v>
       </c>
@@ -11849,54 +11854,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>532274.66666666663</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>6.6188436699916855E-3</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>532274.66666666663</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>6.6188436699916855E-3</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>532274.66666666663</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>6.6188436699916855E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>3435693.3333333335</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>4.2722899464247725E-2</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>3435693.3333333335</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>4.2722899464247725E-2</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>3435693.3333333335</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>4.2722899464247725E-2</v>
       </c>
@@ -11910,27 +11915,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11942,23 +11947,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>519122</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>6.4552900576145354E-3</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>519122</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>6.4552900576145354E-3</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>519122</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>6.4552900576145354E-3</v>
       </c>
@@ -11972,23 +11977,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11998,27 +12003,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>2916571.3333333335</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>3.6267609406633192E-2</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>2916571.3333333335</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>3.6267609406633192E-2</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>2916571.3333333335</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>3.6267609406633192E-2</v>
       </c>
@@ -12028,49 +12033,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>2187428.5</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>2.7200707054974894E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>2187428.5</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>2.7200707054974894E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>2187428.5</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>2.7200707054974894E-2</v>
       </c>
@@ -12080,69 +12085,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.38822490134576654</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.38822490134576654</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.38822490134576654</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1467434004531664E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>4.1595090332432347E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1467434004531664E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>4.1595090332432347E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1467434004531664E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>4.1595090332432347E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.55320000000000003</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>1.4249472356934183</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.27660000000000001</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.71247361784670915</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.27660000000000001</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.71247361784670915</v>
       </c>
@@ -12152,21 +12157,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9088905456056641E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>5.9270808987617496E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.954445272802832E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>2.9635404493808748E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.954445272802832E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>2.9635404493808748E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12188,22 +12193,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12213,9 +12218,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12223,15 +12228,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>7.3929923397229018</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>7.0827872372868548</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>7.3929923397229018</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>7.0827872372868548</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12239,24 +12244,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>4.9726293201110323</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>4.763165818567086</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>4.9726293201110323</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>4.763165818567086</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12277,14 +12285,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12299,21 +12307,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>20710068.35932079</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>19841087.494516943</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6756237955486979</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>3.5213970354466726</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6756237955486979</v>
+        <v>3.5213970354466726</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.2958018886732514</v>
+        <v>5.0029973087304791</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12325,14 +12333,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12343,17 +12351,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12362,27 +12370,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>20710068.35932079</v>
+        <v>19841087.494516943</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.1242802262163933</v>
+        <v>2.9931874801296718</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.6756237955486979</v>
+        <v>3.5213970354466726</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.6756237955486979</v>
+        <v>3.5213970354466726</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.6756237955486979</v>
+        <v>3.5213970354466726</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.2958018886732514</v>
+        <v>5.0029973087304791</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12401,14 +12409,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12423,27 +12431,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>13929879.595806843</v>
+        <v>13343107.252969489</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.1014342695381538</v>
+        <v>2.0129149466556515</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.4722756112213577</v>
+        <v>2.3681352313595903</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.4722756112213577</v>
+        <v>2.3681352313595903</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.4722756112213577</v>
+        <v>2.3681352313595903</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.5620298973694084</v>
+        <v>3.364509616479253</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12462,14 +12470,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12484,27 +12492,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>17319973.977563817</v>
+        <v>16592097.373743216</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.6128572478772734</v>
+        <v>2.5030512133926619</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.0739497033850278</v>
+        <v>2.9447661334031316</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.0739497033850278</v>
+        <v>2.9447661334031316</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.0739497033850278</v>
+        <v>2.9447661334031316</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.4289158930213297</v>
+        <v>4.1837534626048658</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B3301C-080B-4026-B6E4-929B8B4F9A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29FABDF2-E96B-4264-9E09-7E9D4F498F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3574,7 +3574,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4153,11 +4153,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9270808987617496E-2</v>
+        <v>5.980343621469001E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0056619593302411E-2</v>
+        <v>5.0506445046101182E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4577,7 +4577,9 @@
       <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4888,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10</v>
+        <v>9.89</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4929,7 +4931,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>56344.363599999997</v>
+        <v>55724.5756004</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4978,7 +4980,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5024,10 +5026,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5074,7 +5076,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5161,7 +5163,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.041298913114371</v>
+        <v>23.827179939593449</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5193,7 +5195,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9635404493808748E-2</v>
+        <v>2.9901718107345005E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5223,20 +5225,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9931874801296718</v>
+        <v>2.9922275077029568</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.7534469050400503</v>
+        <v>5.243841251451216</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.5213970354466726</v>
+        <v>3.5202676561211259</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.0029973087304791</v>
+        <v>4.5598619577836663</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12108,17 +12110,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1595090332432347E-2</v>
+        <v>4.1968877665556528E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1595090332432347E-2</v>
+        <v>4.1968877665556528E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1595090332432347E-2</v>
+        <v>4.1968877665556528E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12159,17 +12161,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9270808987617496E-2</v>
+        <v>5.980343621469001E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9635404493808748E-2</v>
+        <v>2.9901718107345005E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9635404493808748E-2</v>
+        <v>2.9901718107345005E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12218,7 +12220,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12229,14 +12231,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.0827872372868548</v>
+        <v>7.0805156520630028</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.0827872372868548</v>
+        <v>7.0805156520630028</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12250,21 +12252,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.763165818567086</v>
+        <v>4.7592536466461581</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.763165818567086</v>
+        <v>4.7592536466461581</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12307,21 +12309,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19841087.494516943</v>
+        <v>19834724.078580849</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.5213970354466726</v>
+        <v>3.5202676561211259</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.5213970354466726</v>
+        <v>3.5202676561211259</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0029973087304791</v>
+        <v>4.5598619577836663</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12370,27 +12372,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>19841087.494516943</v>
+        <v>19834724.078580849</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9931874801296718</v>
+        <v>2.9922275077029568</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.5213970354466726</v>
+        <v>3.5202676561211259</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.5213970354466726</v>
+        <v>3.5202676561211259</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.5213970354466726</v>
+        <v>3.5202676561211259</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.0029973087304791</v>
+        <v>4.5598619577836663</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12431,27 +12433,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>13343107.252969489</v>
+        <v>13332148.044006089</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.0129149466556515</v>
+        <v>2.011261661921615</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3681352313595903</v>
+        <v>2.3661901904960176</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3681352313595903</v>
+        <v>2.3661901904960176</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3681352313595903</v>
+        <v>2.3661901904960176</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.364509616479253</v>
+        <v>3.0649659879590789</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12492,27 +12494,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>16592097.373743216</v>
+        <v>16583436.061293468</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.5030512133926619</v>
+        <v>2.5017445848122861</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.9447661334031316</v>
+        <v>2.9432289233085718</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.9447661334031316</v>
+        <v>2.9432289233085718</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.9447661334031316</v>
+        <v>2.9432289233085718</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.1837534626048658</v>
+        <v>3.8124139728713726</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29FABDF2-E96B-4264-9E09-7E9D4F498F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ACFF4DC-761F-4338-830A-61CC5833488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4153,11 +4153,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.980343621469001E-2</v>
+        <v>5.8639291031525868E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0506445046101182E-2</v>
+        <v>4.952327687984253E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4890,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.89</v>
+        <v>10.1</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>55724.5756004</v>
+        <v>56907.807236000001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4980,7 +4980,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.827179939593449</v>
+        <v>24.300212547374304</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9901718107345005E-2</v>
+        <v>2.9319645515762934E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5225,20 +5225,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9922275077029568</v>
+        <v>2.9845510802482433</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.243841251451216</v>
+        <v>5.2303884084280261</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.5202676561211259</v>
+        <v>3.5112365649979336</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5598619577836663</v>
+        <v>4.5481638334156749</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12110,17 +12110,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1968877665556528E-2</v>
+        <v>4.115190342678926E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1968877665556528E-2</v>
+        <v>4.115190342678926E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1968877665556528E-2</v>
+        <v>4.115190342678926E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12161,17 +12161,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.980343621469001E-2</v>
+        <v>5.8639291031525868E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9901718107345005E-2</v>
+        <v>2.9319645515762934E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9901718107345005E-2</v>
+        <v>2.9319645515762934E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12231,14 +12231,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.0805156520630028</v>
+        <v>7.0623509020214028</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.0805156520630028</v>
+        <v>7.0623509020214028</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12259,14 +12259,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.7592536466461581</v>
+        <v>4.752245864431452</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.7592536466461581</v>
+        <v>4.752245864431452</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12309,21 +12309,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19834724.078580849</v>
+        <v>19783838.970385861</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.5202676561211259</v>
+        <v>3.5112365649979336</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.5202676561211259</v>
+        <v>3.5112365649979336</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.5598619577836663</v>
+        <v>4.5481638334156749</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12372,27 +12372,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>19834724.078580849</v>
+        <v>19783838.970385861</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9922275077029568</v>
+        <v>2.9845510802482433</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.5202676561211259</v>
+        <v>3.5112365649979336</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.5202676561211259</v>
+        <v>3.5112365649979336</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.5202676561211259</v>
+        <v>3.5112365649979336</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.5598619577836663</v>
+        <v>4.5481638334156749</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12433,27 +12433,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>13332148.044006089</v>
+        <v>13312517.068881985</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.011261661921615</v>
+        <v>2.0083001715809043</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3661901904960176</v>
+        <v>2.3627060842128289</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3661901904960176</v>
+        <v>2.3627060842128289</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3661901904960176</v>
+        <v>2.3627060842128289</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.0649659879590789</v>
+        <v>3.0604529664364217</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12494,27 +12494,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>16583436.061293468</v>
+        <v>16548178.019633925</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.5017445848122861</v>
+        <v>2.4964256259145738</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.9432289233085718</v>
+        <v>2.9369713246053815</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.9432289233085718</v>
+        <v>2.9369713246053815</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.9432289233085718</v>
+        <v>2.9369713246053815</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.8124139728713726</v>
+        <v>3.8043083999260485</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ACFF4DC-761F-4338-830A-61CC5833488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B061D7AC-C1D2-41B0-AF07-8B2DDBC044B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -941,6 +941,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0322.HK</t>
   </si>
   <si>
@@ -951,9 +962,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>HKD</t>
@@ -3574,7 +3582,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3595,7 +3603,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3603,7 +3611,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3636,7 +3644,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3652,7 +3660,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3684,7 +3692,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4153,11 +4161,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8639291031525868E-2</v>
+        <v>5.7084553172822634E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.952327687984253E-2</v>
+        <v>4.8210237242123519E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4274,7 +4282,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4386,7 +4394,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4890,10 +4898,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.1</v>
+        <v>10.38</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4931,7 +4939,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>56907.807236000001</v>
+        <v>58485.449416800002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4980,7 +4988,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5026,10 +5034,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5076,7 +5084,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5163,7 +5171,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.300212547374304</v>
+        <v>24.96204588620343</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5195,7 +5203,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9319645515762934E-2</v>
+        <v>2.8542276586411317E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5225,20 +5233,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9845510802482433</v>
+        <v>3.5349657109205874</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.2303884084280261</v>
+        <v>6.5317486746189477</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.5112365649979336</v>
+        <v>4.1587831893183385</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5481638334156749</v>
+        <v>5.6797814561903897</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12110,17 +12118,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.115190342678926E-2</v>
+        <v>4.0060818915195646E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.115190342678926E-2</v>
+        <v>4.0060818915195646E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.115190342678926E-2</v>
+        <v>4.0060818915195646E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12161,17 +12169,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8639291031525868E-2</v>
+        <v>5.7084553172822634E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9319645515762934E-2</v>
+        <v>2.8542276586411317E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9319645515762934E-2</v>
+        <v>2.8542276586411317E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12220,7 +12228,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12231,14 +12239,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.0623509020214028</v>
+        <v>8.3647984590896112</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.0623509020214028</v>
+        <v>8.3647984590896112</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12259,14 +12267,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.752245864431452</v>
+        <v>5.6369129232578796</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.752245864431452</v>
+        <v>5.6369129232578796</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12309,21 +12317,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>19783838.970385861</v>
+        <v>23432399.215252012</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.5112365649979336</v>
+        <v>4.1587831893183385</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.5112365649979336</v>
+        <v>4.1587831893183385</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.5481638334156749</v>
+        <v>5.6797814561903897</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12372,27 +12380,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>19783838.970385861</v>
+        <v>23432399.215252012</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9845510802482433</v>
+        <v>3.5349657109205874</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.5112365649979336</v>
+        <v>4.1587831893183385</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.5112365649979336</v>
+        <v>4.1587831893183385</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.5112365649979336</v>
+        <v>4.1587831893183385</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.5481638334156749</v>
+        <v>5.6797814561903897</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12433,27 +12441,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>13312517.068881985</v>
+        <v>15790744.344337445</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.0083001715809043</v>
+        <v>2.3821606696941782</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3627060842128289</v>
+        <v>2.802541964346092</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3627060842128289</v>
+        <v>2.802541964346092</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3627060842128289</v>
+        <v>2.802541964346092</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.0604529664364217</v>
+        <v>3.8275200111832217</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12494,27 +12502,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>16548178.019633925</v>
+        <v>19611571.779794727</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.4964256259145738</v>
+        <v>2.958563190307383</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.9369713246053815</v>
+        <v>3.4806625768322155</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.9369713246053815</v>
+        <v>3.4806625768322155</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.9369713246053815</v>
+        <v>3.4806625768322155</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.8043083999260485</v>
+        <v>4.7536507336868059</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B061D7AC-C1D2-41B0-AF07-8B2DDBC044B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2A96A1D-B115-4FEB-9112-1490441A1CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -949,6 +949,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3581,7 +3585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3603,7 +3607,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3611,7 +3615,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3644,7 +3648,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3660,7 +3664,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4161,11 +4165,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7084553172822634E-2</v>
+        <v>5.7262581667540391E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8210237242123519E-2</v>
+        <v>4.8360589578949502E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4898,10 +4902,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.38</v>
+        <v>10.34</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4939,7 +4943,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>58485.449416800002</v>
+        <v>58260.071962400005</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4988,7 +4992,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5009,7 +5013,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5020,7 +5024,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5047,7 +5051,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5171,7 +5175,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.96204588620343</v>
+        <v>24.884439265531011</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,7 +5207,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8542276586411317E-2</v>
+        <v>2.8631290833770195E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5233,20 +5237,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.5349657109205874</v>
+        <v>3.5344475442981134</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.5317486746189477</v>
+        <v>6.5307912299288553</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.1587831893183385</v>
+        <v>4.1581735815271923</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.6797814561903897</v>
+        <v>5.6789488955903096</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5281,8 +5285,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6308,12 +6312,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8739,118 +8743,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8858,107 +8863,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.17799050346102741</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>0.16795872476877891</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.17799050346102741</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.16795872476877891</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9526,7 +9578,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10209,6 +10263,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12118,17 +12173,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0060818915195646E-2</v>
+        <v>4.018575581830218E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0060818915195646E-2</v>
+        <v>4.018575581830218E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0060818915195646E-2</v>
+        <v>4.018575581830218E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12169,17 +12224,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7084553172822634E-2</v>
+        <v>5.7262581667540391E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8542276586411317E-2</v>
+        <v>2.8631290833770195E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8542276586411317E-2</v>
+        <v>2.8631290833770195E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12239,14 +12294,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.3647984590896112</v>
+        <v>8.3635723200773331</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.3647984590896112</v>
+        <v>8.3635723200773331</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12267,14 +12322,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.6369129232578796</v>
+        <v>5.6351405097667175</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.6369129232578796</v>
+        <v>5.6351405097667175</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12317,21 +12372,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>23432399.215252012</v>
+        <v>23428964.418948237</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.1587831893183385</v>
+        <v>4.1581735815271923</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.1587831893183385</v>
+        <v>4.1581735815271923</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.6797814561903897</v>
+        <v>5.6789488955903096</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12380,27 +12435,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>23432399.215252012</v>
+        <v>23428964.418948237</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.5349657109205874</v>
+        <v>3.5344475442981134</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.1587831893183385</v>
+        <v>4.1581735815271923</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.1587831893183385</v>
+        <v>4.1581735815271923</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.1587831893183385</v>
+        <v>4.1581735815271923</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.6797814561903897</v>
+        <v>5.6789488955903096</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12441,27 +12496,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>15790744.344337445</v>
+        <v>15785779.263504652</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.3821606696941782</v>
+        <v>2.3814116473540139</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.802541964346092</v>
+        <v>2.8016607615929576</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.802541964346092</v>
+        <v>2.8016607615929576</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.802541964346092</v>
+        <v>2.8016607615929576</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.8275200111832217</v>
+        <v>3.8263165247717992</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12502,27 +12557,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>19611571.779794727</v>
+        <v>19607371.841226444</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.958563190307383</v>
+        <v>2.9579295958260636</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.4806625768322155</v>
+        <v>3.479917171560075</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.4806625768322155</v>
+        <v>3.479917171560075</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.4806625768322155</v>
+        <v>3.479917171560075</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.7536507336868059</v>
+        <v>4.7526327101810546</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2A96A1D-B115-4FEB-9112-1490441A1CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A79135A-5998-46DE-B234-56C883DF775A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4165,11 +4165,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7262581667540391E-2</v>
+        <v>5.7463477833757111E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8360589578949502E-2</v>
+        <v>4.8530254598574338E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4902,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.34</v>
+        <v>10.3</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>58260.071962400005</v>
+        <v>58034.694508000008</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4992,7 +4992,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.884439265531011</v>
+        <v>24.797441599615958</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8631290833770195E-2</v>
+        <v>2.8731738916878555E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5237,20 +5237,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.5344475442981134</v>
+        <v>3.5355216992281004</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.5307912299288553</v>
+        <v>6.5327760044964283</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.1581735815271923</v>
+        <v>4.15943729320953</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.6789488955903096</v>
+        <v>5.680674786518634</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10303,8 +10303,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12173,17 +12173,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.018575581830218E-2</v>
+        <v>4.0326740804401656E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.018575581830218E-2</v>
+        <v>4.0326740804401656E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.018575581830218E-2</v>
+        <v>4.0326740804401656E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12224,17 +12224,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7262581667540391E-2</v>
+        <v>5.7463477833757111E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8631290833770195E-2</v>
+        <v>2.8731738916878555E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8631290833770195E-2</v>
+        <v>2.8731738916878555E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12294,14 +12294,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.3635723200773331</v>
+        <v>8.3661140956525308</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.3635723200773331</v>
+        <v>8.3661140956525308</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12322,14 +12322,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.6351405097667175</v>
+        <v>5.6357855204932195</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.6351405097667175</v>
+        <v>5.6357855204932195</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12372,21 +12372,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>23428964.418948237</v>
+        <v>23436084.721999757</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.1581735815271923</v>
+        <v>4.15943729320953</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.1581735815271923</v>
+        <v>4.15943729320953</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.6789488955903096</v>
+        <v>5.680674786518634</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12395,7 +12395,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12434,28 +12434,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>23428964.418948237</v>
+        <f>C97+C98+$C$99</f>
+        <v>23436084.721999757</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.5344475442981134</v>
+        <v>3.5355216992281004</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>4.1581735815271923</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>4.15943729320953</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.1581735815271923</v>
+        <v>4.15943729320953</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.1581735815271923</v>
+        <v>4.15943729320953</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>5.6789488955903096</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>5.680674786518634</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12496,27 +12496,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>15785779.263504652</v>
+        <v>15787586.138938107</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.3814116473540139</v>
+        <v>2.3816842290321634</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.8016607615929576</v>
+        <v>2.8019814459201924</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.8016607615929576</v>
+        <v>2.8019814459201924</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.8016607615929576</v>
+        <v>2.8019814459201924</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.8263165247717992</v>
+        <v>3.8267544934785582</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12557,27 +12557,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>19607371.841226444</v>
+        <v>19611835.430468932</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.9579295958260636</v>
+        <v>2.9586029641301321</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.479917171560075</v>
+        <v>3.4807093695648614</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.479917171560075</v>
+        <v>3.4807093695648614</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.479917171560075</v>
+        <v>3.4807093695648614</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.7526327101810546</v>
+        <v>4.7537146399985959</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A79135A-5998-46DE-B234-56C883DF775A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F52EE59-72CD-4E1C-9ECB-6BC2E4AA4745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4165,11 +4165,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7463477833757111E-2</v>
+        <v>5.6495058227131384E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8530254598574338E-2</v>
+        <v>4.7712384677721958E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4902,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.3</v>
+        <v>10.48</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>58034.694508000008</v>
+        <v>59048.893052800006</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4992,7 +4992,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.797441599615958</v>
+        <v>25.222511143622409</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8731738916878555E-2</v>
+        <v>2.8247529113565692E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5237,20 +5237,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.5355216992281004</v>
+        <v>3.5251458449939452</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.5327760044964283</v>
+        <v>6.5136039735110609</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.15943729320953</v>
+        <v>4.1472304058752298</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.680674786518634</v>
+        <v>5.66400345522701</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12173,17 +12173,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0326740804401656E-2</v>
+        <v>3.9647122933390129E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0326740804401656E-2</v>
+        <v>3.9647122933390129E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0326740804401656E-2</v>
+        <v>3.9647122933390129E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12224,17 +12224,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7463477833757111E-2</v>
+        <v>5.6495058227131384E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8731738916878555E-2</v>
+        <v>2.8247529113565692E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8731738916878555E-2</v>
+        <v>2.8247529113565692E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12294,14 +12294,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.3661140956525308</v>
+        <v>8.3415616850756837</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.3661140956525308</v>
+        <v>8.3415616850756837</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12322,14 +12322,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.6357855204932195</v>
+        <v>5.6243811723613542</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.6357855204932195</v>
+        <v>5.6243811723613542</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12372,21 +12372,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>23436084.721999757</v>
+        <v>23367305.792160954</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.15943729320953</v>
+        <v>4.1472304058752298</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.15943729320953</v>
+        <v>4.1472304058752298</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.680674786518634</v>
+        <v>5.66400345522701</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12435,27 +12435,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>23436084.721999757</v>
+        <v>23367305.792160954</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.5355216992281004</v>
+        <v>3.5251458449939452</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.15943729320953</v>
+        <v>4.1472304058752298</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.15943729320953</v>
+        <v>4.1472304058752298</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.15943729320953</v>
+        <v>4.1472304058752298</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.680674786518634</v>
+        <v>5.66400345522701</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12496,27 +12496,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>15787586.138938107</v>
+        <v>15755639.016778193</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.3816842290321634</v>
+        <v>2.3768647489456183</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.8019814459201924</v>
+        <v>2.7963114693477862</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.8019814459201924</v>
+        <v>2.7963114693477862</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.8019814459201924</v>
+        <v>2.7963114693477862</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.8267544934785582</v>
+        <v>3.819010827524608</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12557,27 +12557,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>19611835.430468932</v>
+        <v>19561472.404469572</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.9586029641301321</v>
+        <v>2.9510052969697815</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.4807093695648614</v>
+        <v>3.4717709376115078</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.4807093695648614</v>
+        <v>3.4717709376115078</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.4807093695648614</v>
+        <v>3.4717709376115078</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.7537146399985959</v>
+        <v>4.7415071413758092</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F52EE59-72CD-4E1C-9ECB-6BC2E4AA4745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6201C8CF-299B-43E0-8FFB-5495F842B17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4165,11 +4165,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6495058227131384E-2</v>
+        <v>5.703399836442833E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7712384677721958E-2</v>
+        <v>4.8167541641107946E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4902,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.48</v>
+        <v>10.38</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>59048.893052800006</v>
+        <v>58485.449416800002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4992,7 +4992,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5038,10 +5038,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5088,7 +5088,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>25.222511143622409</v>
+        <v>24.984172187762081</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8247529113565692E-2</v>
+        <v>2.8516999182214165E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5237,20 +5237,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.5251458449939452</v>
+        <v>3.2247484023120259</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.5136039735110609</v>
+        <v>5.8024980794447893</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.1472304058752298</v>
+        <v>3.7938216497788542</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.66400345522701</v>
+        <v>5.0456505038650343</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12173,17 +12173,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9647122933390129E-2</v>
+        <v>4.0025340542994933E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9647122933390129E-2</v>
+        <v>4.0025340542994933E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9647122933390129E-2</v>
+        <v>4.0025340542994933E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12224,17 +12224,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6495058227131384E-2</v>
+        <v>5.703399836442833E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8247529113565692E-2</v>
+        <v>2.8516999182214165E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8247529113565692E-2</v>
+        <v>2.8516999182214165E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12283,7 +12283,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12294,14 +12294,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.3415616850756837</v>
+        <v>7.6307304433758034</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.3415616850756837</v>
+        <v>7.6307304433758034</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12322,14 +12322,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.6243811723613542</v>
+        <v>5.1424806274455293</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.6243811723613542</v>
+        <v>5.1424806274455293</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12372,21 +12372,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>23367305.792160954</v>
+        <v>21376046.646869164</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.1472304058752298</v>
+        <v>3.7938216497788542</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.1472304058752298</v>
+        <v>3.7938216497788542</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.66400345522701</v>
+        <v>5.0456505038650343</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12435,27 +12435,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>23367305.792160954</v>
+        <v>21376046.646869164</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.5251458449939452</v>
+        <v>3.2247484023120259</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.1472304058752298</v>
+        <v>3.7938216497788542</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.1472304058752298</v>
+        <v>3.7938216497788542</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.1472304058752298</v>
+        <v>3.7938216497788546</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.66400345522701</v>
+        <v>5.0456505038650343</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12496,27 +12496,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>15755639.016778193</v>
+        <v>14405685.876156552</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.3768647489456183</v>
+        <v>2.1732134702348591</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.7963114693477862</v>
+        <v>2.5567217296880695</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.7963114693477862</v>
+        <v>2.5567217296880695</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.7963114693477862</v>
+        <v>2.5567217296880695</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.819010827524608</v>
+        <v>3.4003507477467383</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12557,27 +12557,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>19561472.404469572</v>
+        <v>17890866.261512857</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.9510052969697815</v>
+        <v>2.6989809362734425</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.4717709376115078</v>
+        <v>3.1752716897334619</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.4717709376115078</v>
+        <v>3.1752716897334619</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.4717709376115078</v>
+        <v>3.1752716897334619</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.7415071413758092</v>
+        <v>4.2230006258058861</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6201C8CF-299B-43E0-8FFB-5495F842B17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9505B564-6432-45A3-BB2F-83205F9D49A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4165,11 +4176,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.703399836442833E-2</v>
+        <v>5.7761481511406601E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8167541641107946E-2</v>
+        <v>4.8781930878758435E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4902,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.38</v>
+        <v>10.24</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4943,7 +4954,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>58485.449416800002</v>
+        <v>57696.628326400001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4992,7 +5003,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5175,7 +5186,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.984172187762081</v>
+        <v>24.669506363198511</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5207,7 +5218,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8516999182214165E-2</v>
+        <v>2.8880740755703301E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5237,20 +5248,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.2247484023120259</v>
+        <v>3.2297479200611332</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.8024980794447893</v>
+        <v>5.8114940346382387</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.7938216497788542</v>
+        <v>3.7997034353660393</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.0456505038650343</v>
+        <v>5.053473073598469</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12173,17 +12184,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0025340542994933E-2</v>
+        <v>4.0535873935920362E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0025340542994933E-2</v>
+        <v>4.0535873935920362E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0025340542994933E-2</v>
+        <v>4.0535873935920362E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12224,17 +12235,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.703399836442833E-2</v>
+        <v>5.7761481511406601E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8516999182214165E-2</v>
+        <v>2.8880740755703301E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8516999182214165E-2</v>
+        <v>2.8880740755703301E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12294,14 +12305,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6307304433758034</v>
+        <v>7.6425608150919224</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6307304433758034</v>
+        <v>7.6425608150919224</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12322,14 +12333,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1424806274455293</v>
+        <v>5.1469220590483484</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1424806274455293</v>
+        <v>5.1469220590483484</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12372,21 +12383,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>21376046.646869164</v>
+        <v>21409187.193443321</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.7938216497788542</v>
+        <v>3.7997034353660393</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.7938216497788542</v>
+        <v>3.7997034353660393</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0456505038650343</v>
+        <v>5.053473073598469</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12435,27 +12446,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>21376046.646869164</v>
+        <v>21409187.193443321</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.2247484023120259</v>
+        <v>3.2297479200611332</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.7938216497788542</v>
+        <v>3.7997034353660393</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.7938216497788542</v>
+        <v>3.7997034353660393</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.7938216497788546</v>
+        <v>3.7997034353660393</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.0456505038650343</v>
+        <v>5.053473073598469</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12496,27 +12507,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>14405685.876156552</v>
+        <v>14418127.705916528</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.1732134702348591</v>
+        <v>2.1750904202295485</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.5567217296880695</v>
+        <v>2.55892990615241</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.5567217296880695</v>
+        <v>2.55892990615241</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.5567217296880695</v>
+        <v>2.55892990615241</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.4003507477467383</v>
+        <v>3.4032875454453255</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12557,27 +12568,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>17890866.261512857</v>
+        <v>17913657.449679922</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.6989809362734425</v>
+        <v>2.7024191701453408</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.1752716897334619</v>
+        <v>3.1793166707592246</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1752716897334619</v>
+        <v>3.1793166707592246</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.1752716897334619</v>
+        <v>3.1793166707592246</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.2230006258058861</v>
+        <v>4.2283803095218975</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9505B564-6432-45A3-BB2F-83205F9D49A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F5F8E71-E38E-40BC-9D4D-D59C8A01FA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -964,6 +943,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1540,7 +1555,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2180,6 +2195,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,7 +3621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3610,28 +3635,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45624</v>
@@ -3647,24 +3672,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>5634436360</v>
@@ -3672,10 +3697,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3696,7 +3721,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3704,15 +3729,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3721,61 +3746,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3844,7 +3869,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>55950986</v>
@@ -3864,7 +3889,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <f>17883440+2615681</f>
@@ -3886,7 +3911,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3902,7 +3927,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>519122</v>
@@ -3922,7 +3947,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>399206</v>
@@ -3942,7 +3967,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3958,7 +3983,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3974,7 +3999,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4006,7 +4031,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4022,7 +4047,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4054,7 +4079,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4102,7 +4127,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4118,7 +4143,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4134,7 +4159,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4150,7 +4175,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>0.2766+0.2766</f>
@@ -4172,15 +4197,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7761481511406601E-2</v>
+        <v>5.7878126888125846E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8781930878758435E-2</v>
+        <v>4.888044266473679E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4221,21 +4246,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4245,7 +4270,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4255,7 +4280,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4266,7 +4291,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4276,7 +4301,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4286,7 +4311,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4297,7 +4322,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4307,7 +4332,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4318,7 +4343,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4326,24 +4351,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4354,7 +4379,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4365,7 +4390,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4376,7 +4401,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4387,7 +4412,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4398,7 +4423,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4409,7 +4434,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4419,31 +4444,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4451,12 +4476,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4467,7 +4492,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4478,7 +4503,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4488,7 +4513,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4499,7 +4524,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4509,25 +4534,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4539,55 +4564,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4595,10 +4620,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4606,18 +4631,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4626,20 +4651,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4657,7 +4682,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4678,7 +4703,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4699,7 +4724,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4717,7 +4742,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4738,7 +4763,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4756,7 +4781,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4774,7 +4799,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4901,62 +4926,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0322.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.24</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>康师傅控股</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>5634436360</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>57696.628326400001</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>57583.939599200006</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4979,16 +5004,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5003,7 +5028,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5013,40 +5038,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5059,29 +5084,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5091,12 +5116,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5106,29 +5131,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.69575137181535374</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5136,7 +5161,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5147,26 +5172,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>6.6188436699916855E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5175,30 +5200,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>6.4552900576145354E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.669506363198511</v>
+        <v>24.619788377874361</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5207,18 +5232,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>3.6267609406633192E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8880740755703301E-2</v>
+        <v>2.8939063444062923E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5228,62 +5253,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.2297479200611332</v>
+        <v>3.2312200436785208</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.8114940346382387</v>
+        <v>5.8141429217441205</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.7997034353660393</v>
-      </c>
-      <c r="G29" s="274">
+        <v>3.8014353455041423</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.053473073598469</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>5.0557764536905401</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5293,25 +5318,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5321,7 +5346,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5331,14 +5356,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5348,7 +5373,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5363,14 +5388,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6323,12 +6348,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6355,16 +6380,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6382,7 +6407,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6415,7 +6440,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6426,7 +6451,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6578,7 +6603,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6629,7 +6654,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6680,7 +6705,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6731,7 +6756,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6782,7 +6807,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6833,7 +6858,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6884,7 +6909,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6935,7 +6960,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6986,7 +7011,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7037,7 +7062,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7088,7 +7113,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7139,7 +7164,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7190,7 +7215,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7241,7 +7266,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7292,7 +7317,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7343,7 +7368,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7394,7 +7419,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7445,7 +7470,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7496,7 +7521,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7649,7 +7674,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7700,7 +7725,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7802,7 +7827,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8006,7 +8031,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8057,7 +8082,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8108,7 +8133,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8159,7 +8184,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8210,7 +8235,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8261,7 +8286,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8279,7 +8304,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8330,7 +8355,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8381,7 +8406,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8432,7 +8457,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8483,7 +8508,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8534,7 +8559,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8585,7 +8610,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8636,7 +8661,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8653,50 +8678,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8705,10 +8730,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8756,167 +8781,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8924,112 +8950,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.17799050346102741</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.16795872476877891</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.17799050346102741</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.16795872476877891</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9592,7 +9808,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10275,6 +10493,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10314,8 +10533,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10333,7 +10552,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10348,7 +10567,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10362,7 +10581,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10372,7 +10591,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10390,10 +10609,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10402,12 +10621,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10417,7 +10637,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10427,8 +10647,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10440,7 +10661,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10458,7 +10679,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10477,32 +10698,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10519,7 +10740,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10530,7 +10751,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10547,7 +10768,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10558,7 +10779,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10575,7 +10796,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10586,7 +10807,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10603,7 +10824,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10614,7 +10835,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10631,7 +10852,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10641,7 +10862,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10663,7 +10884,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10685,7 +10906,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10706,7 +10927,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10731,7 +10952,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10758,7 +10979,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10779,7 +11000,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10796,7 +11017,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10808,13 +11029,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10836,7 +11057,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10856,7 +11077,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10865,7 +11086,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10885,7 +11106,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10898,7 +11119,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10918,7 +11139,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10964,7 +11185,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10973,7 +11194,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10989,7 +11210,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10999,7 +11220,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11016,7 +11237,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11026,7 +11247,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11043,7 +11264,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11053,7 +11274,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11073,7 +11294,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11083,7 +11304,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11100,7 +11321,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11110,7 +11331,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11136,7 +11357,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11163,7 +11384,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11190,7 +11411,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11211,7 +11432,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11232,7 +11453,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11253,7 +11474,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11274,7 +11495,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11291,7 +11512,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11309,7 +11530,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11328,7 +11549,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11347,7 +11568,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11364,7 +11585,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11377,7 +11598,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11394,7 +11615,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11407,7 +11628,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11424,7 +11645,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11451,7 +11672,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11467,14 +11688,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11491,7 +11712,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11521,7 +11742,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11532,14 +11753,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11547,30 +11768,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11587,11 +11808,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11601,7 +11822,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11622,7 +11843,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11643,7 +11864,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11664,7 +11885,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11679,7 +11900,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11710,11 +11931,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11724,7 +11945,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11745,7 +11966,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11760,7 +11981,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11782,21 +12003,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11806,23 +12027,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11843,7 +12064,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11873,7 +12094,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11894,7 +12115,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11924,7 +12145,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11954,7 +12175,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11985,7 +12206,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12012,12 +12233,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12047,7 +12268,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12077,7 +12298,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12107,7 +12328,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12128,7 +12349,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12159,7 +12380,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12180,28 +12401,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0535873935920362E-2</v>
+        <v>4.0617733371692721E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0535873935920362E-2</v>
+        <v>4.0617733371692721E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0535873935920362E-2</v>
+        <v>4.0617733371692721E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12231,21 +12452,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7761481511406601E-2</v>
+        <v>5.7878126888125846E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8880740755703301E-2</v>
+        <v>2.8939063444062923E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8880740755703301E-2</v>
+        <v>2.8939063444062923E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12262,29 +12483,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12301,24 +12522,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6425608150919224</v>
+        <v>7.6460443049963001</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6425608150919224</v>
+        <v>7.6460443049963001</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12329,18 +12550,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1469220590483484</v>
+        <v>5.1487020722018526</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1469220590483484</v>
+        <v>5.1487020722018526</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12359,51 +12580,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>21409187.193443321</v>
+        <v>21418945.530897703</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.7997034353660393</v>
+        <v>3.8014353455041423</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.7997034353660393</v>
+        <v>3.8014353455041423</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.053473073598469</v>
+        <v>5.0557764536905401</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12421,7 +12642,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12442,31 +12663,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>21409187.193443321</v>
+        <v>21418945.530897703</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.2297479200611332</v>
+        <v>3.2312200436785208</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.7997034353660393</v>
+        <v>3.8014353455041423</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.7997034353660393</v>
+        <v>3.8014353455041423</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.7997034353660393</v>
+        <v>3.8014353455041423</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.053473073598469</v>
+        <v>5.0557764536905401</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12476,58 +12697,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>14418127.705916528</v>
+        <v>14423114.075764563</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.1750904202295485</v>
+        <v>2.1758426541887284</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.55892990615241</v>
+        <v>2.559814887280857</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.55892990615241</v>
+        <v>2.559814887280857</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.55892990615241</v>
+        <v>2.559814887280857</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.4032875454453255</v>
+        <v>3.40446453948692</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12537,58 +12758,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>17913657.449679922</v>
+        <v>17921029.803331129</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.7024191701453408</v>
+        <v>2.7035313489336246</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.1793166707592246</v>
+        <v>3.1806251163924997</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1793166707592246</v>
+        <v>3.1806251163924997</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.1793166707592246</v>
+        <v>3.1806251163924997</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.2283803095218975</v>
+        <v>4.2301204965887305</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12597,7 +12818,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12606,6 +12827,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F5F8E71-E38E-40BC-9D4D-D59C8A01FA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1789F0F-BEEF-4095-874B-F269374BC852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -962,10 +928,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -979,6 +941,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1291,7 +1289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1549,13 +1547,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2205,6 +2319,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2444,981 +2582,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.69575137181535374</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25490688505040687</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.6188436699916855E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4552900576145354E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.6267609406633192E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3621,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3635,28 +2798,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45624</v>
@@ -3672,7 +2835,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -3681,15 +2844,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>5634436360</v>
@@ -3697,10 +2860,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3721,7 +2884,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3729,10 +2892,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3746,55 +2909,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3927,7 +3090,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>519122</v>
@@ -4047,7 +3210,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4143,7 +3306,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4175,7 +3338,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.2766+0.2766</f>
@@ -4197,15 +3360,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7878126888125846E-2</v>
+        <v>5.7986188982047292E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.888044266473679E-2</v>
+        <v>4.8971705517737697E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4246,13 +3409,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4311,7 +3474,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4322,7 +3485,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4423,7 +3586,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4434,7 +3597,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4594,7 +3757,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4612,7 +3775,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4620,10 +3783,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4633,16 +3796,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4651,10 +3814,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4703,7 +3866,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4724,7 +3887,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4742,7 +3905,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4781,7 +3944,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4799,7 +3962,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4884,8 +4047,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4926,62 +4089,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0322.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.220000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>康师傅控股</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>5634436360</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>57583.939599200006</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>57471.25087199999</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5004,16 +4167,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5028,7 +4191,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5038,40 +4201,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5084,29 +4247,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5116,12 +4279,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5129,9 +4292,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5139,59 +4302,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.69575137181535374</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.25490688505040687</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>6.6188436699916855E-3</v>
+      <c r="B22" s="279" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>4.2722899464247725E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5200,30 +4363,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>6.4552900576145354E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.619788377874361</v>
+        <v>24.573907351189888</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5232,18 +4395,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>3.6267609406633192E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8939063444062923E-2</v>
+        <v>2.8993094491023646E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5253,62 +4416,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.2312200436785208</v>
+        <v>3.232095251571347</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.8141429217441205</v>
+        <v>5.8157177398333699</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.8014353455041423</v>
-      </c>
-      <c r="G29" s="278">
+        <v>3.8024650018486437</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.0557764536905401</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>5.0571458607246695</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5318,7 +4481,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5329,14 +4492,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5346,7 +4509,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5356,14 +4519,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5373,7 +4536,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5388,14 +4551,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6339,7 +5502,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6353,7 +5515,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6380,16 +5542,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6407,7 +5569,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6440,7 +5602,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6807,7 +5969,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6858,7 +6020,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6909,7 +6071,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6960,7 +6122,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7062,7 +6224,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7215,7 +6377,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7725,7 +6887,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8235,7 +7397,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8286,7 +7448,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8355,7 +7517,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8559,7 +7721,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8661,7 +7823,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8679,14 +7841,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8730,7 +7892,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8781,7 +7943,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8832,7 +7994,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8883,7 +8045,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8900,7 +8062,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9100,7 +8262,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9150,7 +8312,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9200,7 +8362,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10704,7 +9866,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10862,7 +10024,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11274,7 +10436,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11742,7 +10904,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11756,11 +10918,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11771,11 +10933,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11787,11 +10949,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11808,7 +10970,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11885,7 +11047,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11931,7 +11093,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11966,7 +11128,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12005,19 +11167,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12027,18 +11189,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12115,7 +11277,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12145,7 +11307,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12175,7 +11337,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12238,7 +11400,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12268,7 +11430,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12349,7 +11511,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12380,7 +11542,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12401,28 +11563,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0617733371692721E-2</v>
+        <v>4.069356922807716E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0617733371692721E-2</v>
+        <v>4.069356922807716E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0617733371692721E-2</v>
+        <v>4.069356922807716E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12452,21 +11614,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7878126888125846E-2</v>
+        <v>5.7986188982047292E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8939063444062923E-2</v>
+        <v>2.8993094491023646E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8939063444062923E-2</v>
+        <v>2.8993094491023646E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12488,24 +11650,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12522,24 +11684,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6460443049963001</v>
+        <v>7.6481153116854674</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6460443049963001</v>
+        <v>7.6481153116854674</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12550,18 +11712,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1487020722018526</v>
+        <v>5.1495723157279762</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1487020722018526</v>
+        <v>5.1495723157279762</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12580,14 +11742,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12604,21 +11766,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>21418945.530897703</v>
+        <v>21424747.064043466</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.8014353455041423</v>
+        <v>3.8024650018486437</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.8014353455041423</v>
+        <v>3.8024650018486437</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0557764536905401</v>
+        <v>5.0571458607246695</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12667,27 +11829,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>21418945.530897703</v>
+        <v>21424747.064043466</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.2312200436785208</v>
+        <v>3.232095251571347</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.8014353455041423</v>
+        <v>3.8024650018486437</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.8014353455041423</v>
+        <v>3.8024650018486437</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.8014353455041423</v>
+        <v>3.8024650018486437</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.0557764536905401</v>
+        <v>5.0571458607246695</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12697,21 +11859,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12724,31 +11886,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>14423114.075764563</v>
+        <v>14425551.898243891</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.1758426541887284</v>
+        <v>2.176210419298676</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.559814887280857</v>
+        <v>2.5602475521160897</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.559814887280857</v>
+        <v>2.5602475521160897</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.559814887280857</v>
+        <v>2.5602475521160897</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.40446453948692</v>
+        <v>3.4050399686307817</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12758,21 +11920,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12785,31 +11947,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>17921029.803331129</v>
+        <v>17925149.481143679</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.7035313489336246</v>
+        <v>2.7041528354350115</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.1806251163924997</v>
+        <v>3.1813562769823669</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1806251163924997</v>
+        <v>3.1813562769823669</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.1806251163924997</v>
+        <v>3.1813562769823669</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.2301204965887305</v>
+        <v>4.2310929146777259</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12818,7 +11980,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1789F0F-BEEF-4095-874B-F269374BC852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C313FBC-73BF-4EEB-A6C4-649CBB554DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -912,10 +908,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -977,6 +969,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2393,7 +2397,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2490,12 +2494,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2784,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2798,28 +2818,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45624</v>
@@ -2835,7 +2855,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -2844,15 +2864,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>5634436360</v>
@@ -2860,10 +2880,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2884,7 +2904,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2892,10 +2912,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2909,61 +2929,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3090,7 +3110,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>519122</v>
@@ -3176,9 +3196,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3194,7 +3214,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3210,7 +3230,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3225,10 +3245,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3240,9 +3261,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3289,10 +3310,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3306,9 +3328,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3322,7 +3344,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3338,7 +3360,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>0.2766+0.2766</f>
@@ -3360,15 +3382,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7986188982047292E-2</v>
+        <v>5.8210850541047222E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8971705517737697E-2</v>
+        <v>4.9161441382460709E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3409,13 +3431,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3433,7 +3455,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3443,7 +3465,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3474,7 +3496,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3485,7 +3507,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3519,7 +3541,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3586,7 +3608,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3597,7 +3619,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3644,7 +3666,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3757,7 +3779,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3775,7 +3797,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3783,10 +3805,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3794,7 +3816,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3802,10 +3824,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3827,7 +3849,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3866,7 +3888,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3887,7 +3909,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3905,7 +3927,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3944,7 +3966,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3962,7 +3984,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -3984,28 +4006,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4047,8 +4074,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4089,7 +4116,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4101,15 +4128,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>10.199999999999999</v>
+        <v>10.16</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4129,7 +4156,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4142,7 +4169,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>57471.25087199999</v>
+        <v>57245.8734176</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4176,7 +4203,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4191,7 +4218,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4201,40 +4228,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4247,29 +4274,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4279,12 +4306,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4294,7 +4321,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4302,21 +4329,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4324,10 +4351,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4335,58 +4362,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>4.2722899464247725E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>6.4552900576145354E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.573907351189888</v>
+        <v>24.479065714537541</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4395,18 +4422,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8993094491023646E-2</v>
+        <v>2.9105425270523611E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4416,40 +4443,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.232095251571347</v>
+        <v>3.2343425534422825</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.8157177398333699</v>
+        <v>5.8197614552378605</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.8024650018486437</v>
+        <v>3.8051088864026856</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.0571458607246695</v>
+        <v>5.0606621349894443</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4457,21 +4484,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4481,25 +4508,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4509,7 +4536,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4519,14 +4546,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4536,7 +4563,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4551,14 +4578,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5458,27 +5485,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5510,12 +5537,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5542,16 +5569,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5569,7 +5596,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5602,7 +5629,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5613,7 +5640,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5969,7 +5996,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6020,7 +6047,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6071,7 +6098,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6122,7 +6149,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6224,7 +6251,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6377,7 +6404,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6632,7 +6659,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6683,7 +6710,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6737,15 +6764,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6785,50 +6812,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6836,50 +6863,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6887,101 +6914,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -6989,101 +7016,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7091,50 +7118,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7142,50 +7169,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7193,50 +7220,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7244,272 +7271,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.69575137181535374</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.70909340016479194</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.25490688505040687</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.24399293066261571</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.69575137181535374</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.70909340016479194</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7517,50 +7544,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.25490688505040687</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>6.4552900576145354E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.24399293066261571</v>
+        <f t="shared" si="37"/>
+        <v>5.6661028778636291E-3</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7568,50 +7595,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>6.6188436699916855E-3</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>7.5124752140843364E-3</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7619,50 +7646,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>6.4552900576145354E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.6661028778636291E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7670,221 +7697,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>6.6188436699916855E-3</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>3.6267609406633192E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>7.5124752140843364E-3</v>
+        <f t="shared" si="40"/>
+        <v>3.3735091080644326E-2</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>3.6267609406633192E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>3.3735091080644326E-2</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7892,522 +7919,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.17799050346102741</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.16795872476877891</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.17799050346102741</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.16795872476877891</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8967,12 +8898,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9654,27 +9581,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9866,7 +9796,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9913,7 +9843,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9941,7 +9871,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10024,7 +9954,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10046,7 +9976,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10114,7 +10044,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10436,7 +10366,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10573,7 +10503,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10904,7 +10834,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10970,7 +10900,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11005,7 +10935,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11026,7 +10956,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11047,7 +10977,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11062,7 +10992,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11093,7 +11023,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11107,7 +11037,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11128,7 +11058,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11143,7 +11073,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11165,7 +11095,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11173,11 +11103,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11205,7 +11135,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11277,7 +11207,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11307,7 +11237,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11337,7 +11267,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11395,12 +11325,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11430,7 +11360,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11460,7 +11390,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11511,7 +11441,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11542,7 +11472,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11563,28 +11493,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.069356922807716E-2</v>
+        <v>4.0851232300345659E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.069356922807716E-2</v>
+        <v>4.0851232300345659E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.069356922807716E-2</v>
+        <v>4.0851232300345659E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11614,21 +11544,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7986188982047292E-2</v>
+        <v>5.8210850541047222E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8993094491023646E-2</v>
+        <v>2.9105425270523611E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8993094491023646E-2</v>
+        <v>2.9105425270523611E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11645,27 +11575,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11684,24 +11614,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6481153116854674</v>
+        <v>7.6534331078861602</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6481153116854674</v>
+        <v>7.6534331078861602</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11712,18 +11642,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1495723157279762</v>
+        <v>5.1520623870935767</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1495723157279762</v>
+        <v>5.1520623870935767</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11742,14 +11672,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11762,31 +11692,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>21424747.064043466</v>
+        <v>21439643.863306399</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.8024650018486437</v>
+        <v>3.8051088864026856</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.8024650018486437</v>
+        <v>3.8051088864026856</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0571458607246695</v>
+        <v>5.0606621349894443</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11804,7 +11734,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11829,27 +11759,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>21424747.064043466</v>
+        <v>21439643.863306399</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.232095251571347</v>
+        <v>3.2343425534422825</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.8024650018486437</v>
+        <v>3.8051088864026856</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.8024650018486437</v>
+        <v>3.8051088864026856</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.8024650018486437</v>
+        <v>3.8051088864026856</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.0571458607246695</v>
+        <v>5.0606621349894443</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11859,21 +11789,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11886,31 +11816,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>14425551.898243891</v>
+        <v>14432527.36174114</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.176210419298676</v>
+        <v>2.1772627240180542</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.5602475521160897</v>
+        <v>2.5614855576682989</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.5602475521160897</v>
+        <v>2.5614855576682989</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.5602475521160897</v>
+        <v>2.5614855576682989</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.4050399686307817</v>
+        <v>3.4066864728460375</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11920,21 +11850,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11947,31 +11877,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>17925149.481143679</v>
+        <v>17936085.612523768</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.7041528354350115</v>
+        <v>2.7058026387301686</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.1813562769823669</v>
+        <v>3.1832972220354923</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1813562769823669</v>
+        <v>3.1832972220354923</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.1813562769823669</v>
+        <v>3.1832972220354923</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.2310929146777259</v>
+        <v>4.2336743039177414</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11980,7 +11910,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C313FBC-73BF-4EEB-A6C4-649CBB554DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DBEB704-2B33-43CE-B954-EAE6960D75B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -948,10 +944,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -981,6 +973,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1908,7 +1916,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2144,12 +2151,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2348,6 +2351,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2587,8 +2595,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2804,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2822,162 +2830,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>267</v>
+      <c r="C4" s="187" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>268</v>
+      <c r="C5" s="190" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45624</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="267"/>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>269</v>
+      <c r="C9" s="191" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>5634436360</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>270</v>
+      <c r="C11" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>244</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>229</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>229</v>
+      <c r="C19" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>229</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>229</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>242</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3034,409 +3042,413 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>80418075</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>78717420</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>55950986</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>55818003</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <f>17883440+2615681</f>
         <v>20499121</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <f>16809780+2396714</f>
         <v>19206494</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>519122</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>446021</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>399206</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>443522</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>264</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.2766+0.2766</f>
         <v>0.55320000000000003</v>
       </c>
-      <c r="D44" s="250">
+      <c r="D44" s="247">
         <f>0.2336+0.2336</f>
         <v>0.4672</v>
       </c>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8210850541047222E-2</v>
-      </c>
-      <c r="D45" s="152">
+        <v>5.8164043182463154E-2</v>
+      </c>
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9161441382460709E-2</v>
-      </c>
-      <c r="E45" s="152" t="str">
+        <v>4.9121910655905252E-2</v>
+      </c>
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3507,7 +3519,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3535,7 +3547,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3547,7 +3559,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3566,8 +3578,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3619,7 +3631,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3635,7 +3647,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3647,7 +3659,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3660,7 +3672,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3708,14 +3720,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3739,7 +3751,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3769,19 +3781,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>268</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3797,20 +3809,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3840,10 +3852,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3855,12 +3867,12 @@
         <f>C25</f>
         <v>80418075</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>80418075</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>80418075</v>
       </c>
@@ -3873,75 +3885,75 @@
         <f>C26</f>
         <v>55950986</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.69575137181535374</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>55950986</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>55950986</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>20499121</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.25490688505040687</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>20499121</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>20499121</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>519122</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>6.4552900576145354E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>519122</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3954,12 +3966,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3972,12 +3984,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>532274.66666666663</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>6.6188436699916855E-3</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>532274.66666666663</v>
       </c>
@@ -3986,16 +3998,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.55320000000000003</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.27660000000000001</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <v>0.27660000000000001</v>
       </c>
       <c r="G98" s="1"/>
@@ -4075,7 +4087,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4127,11 +4139,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
+      <c r="G3" s="131">
         <v>10.16</v>
       </c>
-      <c r="H3" s="134" t="s">
-        <v>271</v>
+      <c r="H3" s="133" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4179,11 +4191,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4205,11 +4217,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0002</v>
       </c>
@@ -4217,8 +4229,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4227,10 +4239,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4238,7 +4250,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4246,13 +4258,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4261,12 +4273,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4276,7 +4288,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4287,7 +4299,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4295,13 +4307,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4311,49 +4323,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4361,79 +4373,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>4.2722899464247725E-2</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>6.4552900576145354E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.479065714537541</v>
+        <v>24.498765177367332</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.71247361784670915</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9105425270523611E-2</v>
+        <v>2.9082021591231577E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4450,10 +4462,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4461,22 +4473,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.2343425534422825</v>
-      </c>
-      <c r="D29" s="129">
+        <v>3.2312318932636463</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>5.8197614552378605</v>
+        <v>5.8141642434679746</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.8051088864026856</v>
+        <v>3.8014492861925251</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.0606621349894443</v>
+        <v>5.055794994319978</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4484,23 +4496,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4508,9 +4520,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4518,17 +4530,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4536,26 +4548,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4563,9 +4575,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4578,16 +4590,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5539,10 +5551,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5568,16 +5580,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5591,11 +5603,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5620,7 +5632,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5628,7 +5640,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5692,47 +5704,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>80418075</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>78717420</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5794,47 +5806,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>55950986</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>55818003</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5845,47 +5857,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>24467089</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>22899417</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5896,47 +5908,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>20499121</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>19206494</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5947,47 +5959,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -5996,49 +6008,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>532274.66666666663</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>591362.66666666663</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6046,50 +6058,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>4.2722899464247725E-2</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>3.9401193958507955E-2</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6097,50 +6109,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>3435693.3333333335</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>3101560.3333333335</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6148,50 +6160,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.1077306143004795</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6202,47 +6214,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6251,49 +6263,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>519122</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>446021</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6304,47 +6316,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6355,47 +6367,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6404,49 +6416,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6457,47 +6469,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6508,47 +6520,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>2916571.3333333335</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>2655539.3333333335</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6559,47 +6571,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>2.7200707054974894E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>2.5301318310483246E-2</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6610,7 +6622,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>2187428.5</v>
       </c>
@@ -6658,50 +6670,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>9.8297169514089913E-2</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6818,43 +6830,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6869,43 +6881,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6914,49 +6926,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6971,43 +6983,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7022,43 +7034,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7124,43 +7136,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7175,43 +7187,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7226,43 +7238,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7324,47 +7336,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7373,7 +7385,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7393,47 +7405,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.69575137181535374</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.70909340016479194</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7442,49 +7454,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.25490688505040687</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.24399293066261571</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7495,47 +7507,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7546,47 +7558,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>6.4552900576145354E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>5.6661028778636291E-3</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7597,47 +7609,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>6.6188436699916855E-3</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>7.5124752140843364E-3</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7646,49 +7658,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7699,47 +7711,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>3.6267609406633192E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>3.3735091080644326E-2</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7748,9 +7760,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>248</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>266</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7765,50 +7779,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7817,49 +7831,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="153">
+        <v>255</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7868,49 +7882,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="153">
+        <v>256</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7919,49 +7933,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>246</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7970,7 +7984,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7987,49 +8001,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>250</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8039,47 +8053,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8089,47 +8103,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.17799050346102741</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>0.16795872476877891</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8139,47 +8153,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8187,149 +8201,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>251</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9625,8 +9639,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9662,8 +9676,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9675,8 +9689,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9686,8 +9700,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9774,11 +9788,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9821,7 +9835,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9849,7 +9863,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9877,7 +9891,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9905,7 +9919,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9918,7 +9932,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9933,7 +9947,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9960,7 +9974,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -9982,7 +9996,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10004,7 +10018,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10025,7 +10039,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10033,7 +10047,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10050,7 +10064,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10058,7 +10072,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10077,7 +10091,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10098,7 +10112,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10263,7 +10277,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10292,7 +10306,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10318,7 +10332,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10345,7 +10359,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10372,7 +10386,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10388,7 +10402,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10402,7 +10416,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10429,7 +10443,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10437,7 +10451,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10455,7 +10469,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10463,7 +10477,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10482,7 +10496,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10490,7 +10504,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10509,7 +10523,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10530,7 +10544,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10551,7 +10565,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10572,7 +10586,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10593,7 +10607,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10739,8 +10753,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10766,8 +10780,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10837,7 +10851,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10937,7 +10951,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10945,7 +10959,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -10976,11 +10990,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11057,12 +11071,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11141,17 +11155,17 @@
         <f>Data!C6</f>
         <v>80418075</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>80418075</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>80418075</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11162,23 +11176,23 @@
         <f>Data!C8</f>
         <v>55950986</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.69575137181535374</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>55950986</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.69575137181535374</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>55950986</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.69575137181535374</v>
       </c>
@@ -11188,48 +11202,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>24467089</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>24467089</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>24467089</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>20499121</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.25490688505040687</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>20499121</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.25490688505040687</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>20499121</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.25490688505040687</v>
       </c>
@@ -11243,54 +11257,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>532274.66666666663</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>6.6188436699916855E-3</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>532274.66666666663</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>6.6188436699916855E-3</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>532274.66666666663</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>6.6188436699916855E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>3435693.3333333335</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>4.2722899464247725E-2</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>3435693.3333333335</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>4.2722899464247725E-2</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>3435693.3333333335</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>4.2722899464247725E-2</v>
       </c>
@@ -11304,55 +11318,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>519122</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>6.4552900576145354E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>519122</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>6.4552900576145354E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>519122</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>6.4552900576145354E-3</v>
       </c>
@@ -11360,29 +11374,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11392,27 +11406,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>2916571.3333333335</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>3.6267609406633192E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>2916571.3333333335</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>3.6267609406633192E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>2916571.3333333335</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>3.6267609406633192E-2</v>
       </c>
@@ -11422,49 +11436,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>2187428.5</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>2.7200707054974894E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>2187428.5</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>2.7200707054974894E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>2187428.5</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>2.7200707054974894E-2</v>
       </c>
@@ -11474,69 +11488,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.38822490134576654</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.38822490134576654</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.38822490134576654</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0851232300345659E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>4.0818383814863815E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0851232300345659E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>4.0818383814863815E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0851232300345659E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>4.0818383814863815E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.55320000000000003</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>1.4249472356934183</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.27660000000000001</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.71247361784670915</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.27660000000000001</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.71247361784670915</v>
       </c>
@@ -11544,23 +11558,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8210850541047222E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>5.8164043182463154E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9105425270523611E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>2.9082021591231577E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9105425270523611E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>2.9082021591231577E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11582,7 +11596,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11605,27 +11619,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6534331078861602</v>
+        <v>7.6460723447000776</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6534331078861602</v>
+        <v>7.6460723447000776</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11633,27 +11647,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1520623870935767</v>
+        <v>5.1473342751134208</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1520623870935767</v>
+        <v>5.1473342751134208</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11667,25 +11681,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11696,21 +11710,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>21439643.863306399</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>21419024.078819212</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.8051088864026856</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>3.8014492861925251</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.8051088864026856</v>
-      </c>
-      <c r="I97" s="123">
+        <v>3.8014492861925251</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0606621349894443</v>
+        <v>5.055794994319978</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11722,14 +11736,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11740,17 +11754,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11759,27 +11773,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>21439643.863306399</v>
+        <v>21419024.078819212</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.2343425534422825</v>
+        <v>3.2312318932636463</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.8051088864026856</v>
+        <v>3.8014492861925251</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.8051088864026856</v>
+        <v>3.8014492861925251</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.8051088864026856</v>
+        <v>3.8014492861925251</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.0606621349894443</v>
+        <v>5.055794994319978</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11791,25 +11805,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11820,27 +11834,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>14432527.36174114</v>
+        <v>14419282.451179901</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.1772627240180542</v>
-      </c>
-      <c r="E103" s="123">
+        <v>2.1752646228313979</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.5614855576682989</v>
+        <v>2.5591348503898801</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.5614855576682989</v>
-      </c>
-      <c r="H103" s="123">
+        <v>2.5591348503898801</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.5614855576682989</v>
+        <v>2.5591348503898801</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.4066864728460375</v>
+        <v>3.4035601141347676</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11852,25 +11866,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11881,27 +11895,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>17936085.612523768</v>
+        <v>17919153.264999554</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.7058026387301686</v>
-      </c>
-      <c r="E106" s="123">
+        <v>2.7032482580475223</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>3.1832972220354923</v>
+        <v>3.1802920682912026</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1832972220354923</v>
-      </c>
-      <c r="H106" s="123">
+        <v>3.1802920682912026</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>3.1832972220354923</v>
-      </c>
-      <c r="I106" s="123">
+        <v>3.1802920682912026</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>4.2336743039177414</v>
+        <v>4.229677554227373</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11912,14 +11926,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DBEB704-2B33-43CE-B954-EAE6960D75B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{539EF1E2-9142-4D8F-9A8D-830277DADC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3256,9 +3256,7 @@
       <c r="B37" s="94" t="s">
         <v>262</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3322,9 +3320,7 @@
       <c r="B41" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3340,9 +3336,7 @@
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -3398,11 +3392,11 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8164043182463154E-2</v>
+        <v>5.8507746106327169E-2</v>
       </c>
       <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9121910655905252E-2</v>
+        <v>4.9412181816478773E-2</v>
       </c>
       <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4140,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>10.16</v>
+        <v>10.1</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>273</v>
@@ -4181,7 +4175,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>57245.8734176</v>
+        <v>56907.807236000001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4230,7 +4224,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4413,7 +4407,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.498765177367332</v>
+        <v>24.354847529143168</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4445,7 +4439,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9082021591231577E-2</v>
+        <v>2.9253873053163584E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4475,20 +4469,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.2312318932636463</v>
+        <v>3.2348767690296203</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>5.8141642434679746</v>
+        <v>5.8207227038479274</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.8014492861925251</v>
+        <v>3.8057373753289654</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.055794994319978</v>
+        <v>5.0614980033460242</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11511,17 +11505,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0818383814863815E-2</v>
+        <v>4.1059587780354338E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0818383814863815E-2</v>
+        <v>4.1059587780354338E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0818383814863815E-2</v>
+        <v>4.1059587780354338E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11562,17 +11556,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8164043182463154E-2</v>
+        <v>5.8507746106327169E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9082021591231577E-2</v>
+        <v>2.9253873053163584E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9082021591231577E-2</v>
+        <v>2.9253873053163584E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11632,14 +11626,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6460723447000776</v>
+        <v>7.6546972236052975</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6460723447000776</v>
+        <v>7.6546972236052975</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11660,14 +11654,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1473342751134208</v>
+        <v>5.1514728248642019</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1473342751134208</v>
+        <v>5.1514728248642019</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11710,21 +11704,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>21419024.078819212</v>
+        <v>21443185.04416449</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.8014492861925251</v>
+        <v>3.8057373753289654</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.8014492861925251</v>
+        <v>3.8057373753289654</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.055794994319978</v>
+        <v>5.0614980033460242</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11773,27 +11767,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>21419024.078819212</v>
+        <v>21443185.04416449</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.2312318932636463</v>
+        <v>3.2348767690296203</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.8014492861925251</v>
+        <v>3.8057373753289654</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.8014492861925251</v>
+        <v>3.8057373753289654</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.8014492861925251</v>
+        <v>3.8057373753289654</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.055794994319978</v>
+        <v>5.0614980033460242</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11834,27 +11828,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>14419282.451179901</v>
+        <v>14430875.814774586</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.1752646228313979</v>
+        <v>2.1770135748872663</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.5591348503898801</v>
+        <v>2.5611924410438429</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.5591348503898801</v>
+        <v>2.5611924410438429</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.5591348503898801</v>
+        <v>2.5611924410438429</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.4035601141347676</v>
+        <v>3.4062966379564714</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11895,27 +11889,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>17919153.264999554</v>
+        <v>17937030.429469537</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.7032482580475223</v>
+        <v>2.7059451719584433</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>3.1802920682912026</v>
+        <v>3.1834649081864042</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.1802920682912026</v>
+        <v>3.1834649081864042</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>3.1802920682912026</v>
+        <v>3.1834649081864042</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>4.229677554227373</v>
+        <v>4.2338973206512476</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{539EF1E2-9142-4D8F-9A8D-830277DADC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98E25D4-304D-4083-808C-133742F14DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,10 +961,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -989,6 +978,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1678,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1829,7 +1826,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2019,9 +2015,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2357,6 +2350,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2826,172 +2820,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>5634436360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>5634436360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
+      <c r="C14" s="214">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>243</v>
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>228</v>
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>228</v>
+      <c r="C19" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>228</v>
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>228</v>
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>241</v>
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>239</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3039,801 +3033,802 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>80418075</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>78717420</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="149">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
         <v>55950986</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="148">
         <v>55818003</v>
       </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="149">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
         <f>17883440+2615681</f>
         <v>20499121</v>
       </c>
-      <c r="D27" s="149">
+      <c r="D27" s="148">
         <f>16809780+2396714</f>
         <v>19206494</v>
       </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
+        <v>519122</v>
+      </c>
+      <c r="D29" s="148">
+        <v>446021</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>399206</v>
+      </c>
+      <c r="D30" s="148">
+        <v>443522</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
-        <v>519122</v>
-      </c>
-      <c r="D29" s="149">
-        <v>446021</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>399206</v>
-      </c>
-      <c r="D30" s="149">
-        <v>443522</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.2766+0.2766</f>
         <v>0.55320000000000003</v>
       </c>
-      <c r="D44" s="247">
+      <c r="D44" s="245">
         <f>0.2336+0.2336</f>
         <v>0.4672</v>
       </c>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8507746106327169E-2</v>
-      </c>
-      <c r="D45" s="151">
+        <v>5.8611027404429424E-2</v>
+      </c>
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9412181816478773E-2</v>
-      </c>
-      <c r="E45" s="151" t="str">
+        <v>4.9499407092099462E-2</v>
+      </c>
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>264</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>265</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3842,166 +3837,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>80418075</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>80418075</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>80418075</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>55950986</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.69575137181535374</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>55950986</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>55950986</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>20499121</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.25490688505040687</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>20499121</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>20499121</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>519122</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>6.4552900576145354E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>519122</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>532274.66666666663</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>6.6188436699916855E-3</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>532274.66666666663</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.55320000000000003</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.27660000000000001</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <v>0.27660000000000001</v>
       </c>
       <c r="G98" s="1"/>
@@ -4013,32 +4008,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4097,13 +4092,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4114,82 +4109,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0322.HK : 康师傅控股</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0322.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>10.1</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>273</v>
+      <c r="G3" s="130">
+        <v>10.08</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>康师傅控股</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>5634436360</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>56907.807236000001</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>56795.118508800006</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4200,31 +4195,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0002</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4233,280 +4228,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>4.2722899464247725E-2</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>6.4552900576145354E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.354847529143168</v>
+        <v>24.311930686028727</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.71247361784670915</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9253873053163584E-2</v>
+        <v>2.9305513702214712E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.2348767690296203</v>
-      </c>
-      <c r="D29" s="128">
+        <v>3.2352961644511864</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>5.8207227038479274</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>5.8214773491177469</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.8057373753289654</v>
-      </c>
-      <c r="G29" s="286">
+        <v>3.8062307817072782</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.0614980033460242</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>5.062154216624128</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4514,9 +4509,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4524,17 +4519,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4542,26 +4537,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4569,9 +4564,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4584,16 +4579,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5545,10 +5540,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5574,59 +5569,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>3435693.3333333335</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5634,19 +5629,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5695,928 +5690,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>80418075</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>78717420</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>2.1604557161553295E-2</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>55950986</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>55818003</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>24467089</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>22899417</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>20499121</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>19206494</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>532274.66666666663</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>591362.66666666663</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>4.2722899464247725E-2</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>3.9401193958507955E-2</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>3435693.3333333335</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>3101560.3333333335</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.1077306143004795</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>519122</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>446021</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>2916571.3333333335</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>2655539.3333333335</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>2.7200707054974894E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>2.5301318310483246E-2</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>2187428.5</v>
       </c>
@@ -6660,63 +6655,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>9.8297169514089913E-2</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6762,11 +6757,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6813,266 +6808,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>262</v>
+      <c r="B30" s="93" t="s">
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7119,165 +7114,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7323,63 +7318,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7392,372 +7387,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.69575137181535374</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.70909340016479194</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.25490688505040687</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.24399293066261571</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>6.4552900576145354E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>5.6661028778636291E-3</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>6.6188436699916855E-3</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>7.5124752140843364E-3</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>3.6267609406633192E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>3.3735091080644326E-2</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>266</v>
+      <c r="B47" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>263</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7769,216 +7764,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>249</v>
+      <c r="B52" s="101" t="s">
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7994,350 +7989,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.17799050346102741</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>0.16795872476877891</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9616,7 +9611,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9634,7 +9629,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9652,25 +9647,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
@@ -9678,12 +9673,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9691,28 +9686,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9725,7 +9720,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>0</v>
@@ -9734,16 +9729,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9751,7 +9746,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9761,287 +9756,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10052,21 +10047,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10079,45 +10074,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10125,17 +10120,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10145,19 +10140,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10167,17 +10162,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10186,7 +10181,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10196,17 +10191,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10219,7 +10214,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10229,17 +10224,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10266,12 +10261,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10281,171 +10276,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10453,25 +10448,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10479,26 +10474,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10506,113 +10501,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10620,17 +10615,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10640,16 +10635,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10659,16 +10654,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10678,14 +10673,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10698,7 +10693,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10708,14 +10703,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10728,13 +10723,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10742,12 +10737,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10758,63 +10753,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10822,45 +10817,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10868,61 +10863,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10936,35 +10931,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -10978,29 +10973,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11014,9 +11009,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11024,28 +11019,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11059,29 +11054,29 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>0</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11095,29 +11090,29 @@
         <f>E68-E69</f>
         <v>0</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11127,66 +11122,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>80418075</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>80418075</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>80418075</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>55950986</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.69575137181535374</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>55950986</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.69575137181535374</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>55950986</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.69575137181535374</v>
       </c>
@@ -11194,50 +11189,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>24467089</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>24467089</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>24467089</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>20499121</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.25490688505040687</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>20499121</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.25490688505040687</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>20499121</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.25490688505040687</v>
       </c>
@@ -11245,60 +11240,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>532274.66666666663</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>6.6188436699916855E-3</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>532274.66666666663</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>6.6188436699916855E-3</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>532274.66666666663</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>6.6188436699916855E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>3435693.3333333335</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>4.2722899464247725E-2</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>3435693.3333333335</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>4.2722899464247725E-2</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>3435693.3333333335</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>4.2722899464247725E-2</v>
       </c>
@@ -11306,61 +11301,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>519122</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>6.4552900576145354E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>519122</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>6.4552900576145354E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>519122</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>6.4552900576145354E-3</v>
       </c>
@@ -11368,59 +11363,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>2916571.3333333335</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>3.6267609406633192E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>2916571.3333333335</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>3.6267609406633192E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>2916571.3333333335</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>3.6267609406633192E-2</v>
       </c>
@@ -11428,184 +11423,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>2187428.5</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>2.7200707054974894E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>2187428.5</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>2.7200707054974894E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>2187428.5</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>2.7200707054974894E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.38822490134576654</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.38822490134576654</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.38822490134576654</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1059587780354338E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>4.1132068568074165E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1059587780354338E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>4.1132068568074165E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1059587780354338E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>4.1132068568074165E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.55320000000000003</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>1.4249472356934183</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.27660000000000001</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.71247361784670915</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.27660000000000001</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.71247361784670915</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8507746106327169E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>5.8611027404429424E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9253873053163584E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>2.9305513702214712E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9253873053163584E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>2.9305513702214712E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11613,55 +11608,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6546972236052975</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>7.6556896400706753</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6546972236052975</v>
+        <v>7.6556896400706753</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1514728248642019</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>5.1516397316111613</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1514728248642019</v>
+        <v>5.1516397316111613</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11671,123 +11666,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>21443185.04416449</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>21445965.111002713</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.8057373753289654</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>3.8062307817072782</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.8057373753289654</v>
-      </c>
-      <c r="I97" s="122">
+        <v>3.8062307817072782</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0614980033460242</v>
+        <v>5.062154216624128</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>21443185.04416449</v>
-      </c>
-      <c r="D100" s="109">
+        <v>21445965.111002713</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.2348767690296203</v>
-      </c>
-      <c r="E100" s="109">
+        <v>3.2352961644511864</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.8057373753289654</v>
-      </c>
-      <c r="F100" s="109">
+        <v>3.8062307817072782</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>3.8057373753289654</v>
-      </c>
-      <c r="H100" s="109">
+        <v>3.8062307817072782</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.8057373753289654</v>
-      </c>
-      <c r="I100" s="109">
+        <v>3.8062307817072782</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.0614980033460242</v>
+        <v>5.062154216624128</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11797,58 +11792,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>14430875.814774586</v>
-      </c>
-      <c r="D103" s="109">
+        <v>14431343.372426523</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.1770135748872663</v>
-      </c>
-      <c r="E103" s="122">
+        <v>2.1770841097160858</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.5611924410438429</v>
-      </c>
-      <c r="F103" s="109">
+        <v>2.5612754231953954</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>2.5611924410438429</v>
-      </c>
-      <c r="H103" s="122">
+        <v>2.5612754231953954</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.5611924410438429</v>
-      </c>
-      <c r="I103" s="109">
+        <v>2.5612754231953954</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.4062966379564714</v>
+        <v>3.4064070013244532</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11858,58 +11853,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>17937030.429469537</v>
-      </c>
-      <c r="D106" s="109">
+        <v>17938654.241714615</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>2.7059451719584433</v>
-      </c>
-      <c r="E106" s="122">
+        <v>2.7061901370836363</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.1834649081864042</v>
-      </c>
-      <c r="F106" s="109">
+        <v>3.1837531024513366</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>3.1834649081864042</v>
-      </c>
-      <c r="H106" s="122">
+        <v>3.1837531024513366</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>3.1834649081864042</v>
-      </c>
-      <c r="I106" s="122">
+        <v>3.1837531024513366</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>4.2338973206512476</v>
+        <v>4.2342806089742906</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11918,15 +11913,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98E25D4-304D-4083-808C-133742F14DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB6FDF73-6FA1-498C-BA1E-8D8D2BECABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -986,6 +986,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1678,7 +1686,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2330,9 +2338,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2341,9 +2346,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2351,6 +2353,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2806,7 +2820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,7 +2842,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2836,7 +2850,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2869,7 +2883,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2885,7 +2899,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2928,6 +2942,9 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -3386,11 +3403,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8611027404429424E-2</v>
+        <v>5.8578228576788835E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9499407092099462E-2</v>
+        <v>4.9471707142219344E-2</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3819,11 +3836,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3837,10 +3854,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4061,8 +4078,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4075,8 +4095,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4119,11 +4139,11 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0322.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4132,47 +4152,47 @@
         <v>10.08</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>康师傅控股</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>5634436360</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
         <v>56795.118508800006</v>
       </c>
-      <c r="H5" s="286"/>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4195,11 +4215,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4219,7 +4239,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4340,7 +4360,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4352,20 +4372,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>255</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>4.2722899464247725E-2</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4374,12 +4394,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>4.2722899464247725E-2</v>
+      <c r="B23" s="275" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
@@ -4390,10 +4410,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>6.4552900576145354E-3</v>
       </c>
@@ -4402,7 +4422,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.311930686028727</v>
+        <v>24.325543300195363</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4434,7 +4454,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9305513702214712E-2</v>
+        <v>2.9289114288394417E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4453,10 +4473,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4464,22 +4484,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.2352961644511864</v>
+        <v>3.2331282701713979</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>5.8214773491177469</v>
+        <v>5.8175765169207638</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.8062307817072782</v>
-      </c>
-      <c r="G29" s="285">
+        <v>3.8036803178487038</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.062154216624128</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>5.0587621886267513</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5510,7 +5530,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7751,7 +7771,7 @@
       <c r="B47" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>263</v>
       </c>
       <c r="D47" s="36"/>
@@ -9678,7 +9698,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -10725,7 +10745,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10742,7 +10762,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10851,11 +10871,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10866,11 +10886,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10882,11 +10902,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11100,19 +11120,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11122,18 +11142,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11500,17 +11520,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1132068568074165E-2</v>
+        <v>4.1109050994637755E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1132068568074165E-2</v>
+        <v>4.1109050994637755E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1132068568074165E-2</v>
+        <v>4.1109050994637755E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11551,17 +11571,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8611027404429424E-2</v>
+        <v>5.8578228576788835E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9305513702214712E-2</v>
+        <v>2.9289114288394417E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9305513702214712E-2</v>
+        <v>2.9289114288394417E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11592,15 +11612,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11621,14 +11641,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6556896400706753</v>
+        <v>7.6505597462572723</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6556896400706753</v>
+        <v>7.6505597462572723</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11649,14 +11669,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1516397316111613</v>
+        <v>5.1483467156501392</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1516397316111613</v>
+        <v>5.1483467156501392</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11699,21 +11719,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>21445965.111002713</v>
+        <v>21431594.684703093</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.8062307817072782</v>
+        <v>3.8036803178487038</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.8062307817072782</v>
+        <v>3.8036803178487038</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.062154216624128</v>
+        <v>5.0587621886267513</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11762,27 +11782,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>21445965.111002713</v>
+        <v>21431594.684703093</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.2352961644511864</v>
+        <v>3.2331282701713979</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.8062307817072782</v>
+        <v>3.8036803178487038</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>3.8062307817072782</v>
+        <v>3.8036803178487038</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.8062307817072782</v>
+        <v>3.8036803178487038</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.062154216624128</v>
+        <v>5.0587621886267513</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11823,27 +11843,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>14431343.372426523</v>
+        <v>14422118.611662919</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.1770841097160858</v>
+        <v>2.1756924804300177</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.5612754231953954</v>
+        <v>2.5596382122706092</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>2.5612754231953954</v>
+        <v>2.5596382122706092</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.5612754231953954</v>
+        <v>2.5596382122706092</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.4064070013244532</v>
+        <v>3.404229567883938</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11884,27 +11904,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>17938654.241714615</v>
+        <v>17926856.648183007</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>2.7061901370836363</v>
+        <v>2.704410375300708</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.1837531024513366</v>
+        <v>3.1816592650596567</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>3.1837531024513366</v>
+        <v>3.1816592650596567</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>3.1837531024513366</v>
+        <v>3.1816592650596567</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>4.2342806089742906</v>
+        <v>4.2314958782553447</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB6FDF73-6FA1-498C-BA1E-8D8D2BECABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83DB7503-8BC6-4E50-A7B5-F0CD5449BB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3403,11 +3403,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8578228576788835E-2</v>
+        <v>5.9368519518910833E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9471707142219344E-2</v>
+        <v>5.0139140128769223E-2</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4149,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>10.08</v>
+        <v>9.93</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>274</v>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>56795.118508800006</v>
+        <v>55949.953054799997</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4239,7 +4239,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.325543300195363</v>
+        <v>24.001731005596756</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9289114288394417E-2</v>
+        <v>2.9684259759455416E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4484,20 +4484,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.2331282701713979</v>
+        <v>3.2365930422644831</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>5.8175765169207638</v>
+        <v>5.8238109051295996</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.8036803178487038</v>
+        <v>3.8077565203111567</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.0587621886267513</v>
+        <v>5.0641833957648696</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9649,7 +9649,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11520,17 +11520,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1109050994637755E-2</v>
+        <v>4.1663661665353166E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1109050994637755E-2</v>
+        <v>4.1663661665353166E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1109050994637755E-2</v>
+        <v>4.1663661665353166E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11571,17 +11571,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8578228576788835E-2</v>
+        <v>5.9368519518910833E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9289114288394417E-2</v>
+        <v>2.9684259759455416E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9289114288394417E-2</v>
+        <v>2.9684259759455416E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11641,14 +11641,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6505597462572723</v>
+        <v>7.6587584453778321</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6505597462572723</v>
+        <v>7.6587584453778321</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11669,14 +11669,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1483467156501392</v>
+        <v>5.1500323731615421</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1483467156501392</v>
+        <v>5.1500323731615421</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11719,21 +11719,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>21431594.684703093</v>
+        <v>21454561.788068261</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.8036803178487038</v>
+        <v>3.8077565203111567</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.8036803178487038</v>
+        <v>3.8077565203111567</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0587621886267513</v>
+        <v>5.0641833957648696</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11760,7 +11760,7 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D99" s="209"/>
@@ -11782,27 +11782,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>21431594.684703093</v>
+        <v>21454561.788068261</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.2331282701713979</v>
+        <v>3.2365930422644831</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.8036803178487038</v>
+        <v>3.8077565203111567</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>3.8036803178487038</v>
+        <v>3.8077565203111567</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.8036803178487038</v>
+        <v>3.8077565203111567</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.0587621886267513</v>
+        <v>5.0641833957648696</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11843,27 +11843,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>14422118.611662919</v>
+        <v>14426840.662043517</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.1756924804300177</v>
+        <v>2.1764048396736158</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.5596382122706092</v>
+        <v>2.5604762819689597</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>2.5596382122706092</v>
+        <v>2.5604762819689597</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.5596382122706092</v>
+        <v>2.5604762819689597</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.404229567883938</v>
+        <v>3.4053441713593018</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11904,27 +11904,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>17926856.648183007</v>
+        <v>17940701.225055888</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>2.704410375300708</v>
+        <v>2.7064989409690492</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.1816592650596567</v>
+        <v>3.1841164011400584</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>3.1816592650596567</v>
+        <v>3.1841164011400584</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>3.1816592650596567</v>
+        <v>3.1841164011400584</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>4.2314958782553447</v>
+        <v>4.2347637835620855</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FD158FB-8FA7-4A64-B757-CDCE5FE3540C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36904BD9-0D17-4FBC-9E17-7590B7C6539E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3616,11 +3616,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7814454545206555E-2</v>
+        <v>5.7810831154259341E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8826668769921373E-2</v>
+        <v>4.8823608668239274E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4452,7 +4452,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4583,7 +4583,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.646902697650059</v>
+        <v>24.648447483675934</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8907227272603277E-2</v>
+        <v>2.8905415577129671E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4702,20 +4702,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.9259310703343564</v>
+        <v>3.2141016736749943</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>6.3026869639217891</v>
+        <v>5.7833407329601911</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.6187424356874782</v>
+        <v>3.781296086676464</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.4805973599319913</v>
+        <v>5.0289919417045148</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11752,17 +11752,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0573049371243883E-2</v>
+        <v>4.0570506546599966E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0573049371243883E-2</v>
+        <v>4.0570506546599966E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0573049371243883E-2</v>
+        <v>4.0570506546599966E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11803,17 +11803,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7814454545206555E-2</v>
+        <v>5.7810831154259341E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8907227272603277E-2</v>
+        <v>2.8905415577129671E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8907227272603277E-2</v>
+        <v>2.8905415577129671E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11866,21 +11866,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.0245299018761918</v>
+        <v>7.6055370620023268</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.0245299018761918</v>
+        <v>7.6055370620023268</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11901,14 +11901,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.8383467059083944</v>
+        <v>5.1217500294404505</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.8383467059083944</v>
+        <v>5.1217500294404505</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11951,21 +11951,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>26024010.317112487</v>
+        <v>21305472.158695579</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.6187424356874782</v>
+        <v>3.781296086676464</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.6187424356874782</v>
+        <v>3.781296086676464</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.4805973599319913</v>
+        <v>5.0289919417045148</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12015,23 +12015,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.9259310703343564</v>
+        <v>3.2141016736749943</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.6187424356874782</v>
+        <v>3.781296086676464</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>4.6187424356874782</v>
+        <v>3.781296086676464</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.6187424356874782</v>
+        <v>3.781296086676464</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.4805973599319913</v>
+        <v>5.0289919417045148</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12070,23 +12070,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.7040977726783177</v>
+        <v>2.1644527148534549</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.1812914972686093</v>
+        <v>2.5464149586511233</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>3.1812914972686093</v>
+        <v>2.5464149586511233</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.1812914972686093</v>
+        <v>2.5464149586511233</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.7749188277716241</v>
+        <v>3.3866431016641081</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12125,23 +12125,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.3150144215063371</v>
+        <v>2.6892771942642248</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.9000169664780437</v>
+        <v>3.1638555226637939</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>3.9000169664780437</v>
+        <v>3.1638555226637939</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>3.9000169664780437</v>
+        <v>3.1638555226637939</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>4.6277580938518081</v>
+        <v>4.2078175216843112</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36904BD9-0D17-4FBC-9E17-7590B7C6539E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61ACF738-358F-44AF-A4CB-B268A68F7350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2582,6 +2582,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2598,9 +2601,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2814,11 +2814,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3033,7 +3033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3058,6 +3058,7 @@
       <c r="C4" s="66" t="s">
         <v>282</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3616,11 +3617,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7810831154259341E-2</v>
+        <v>5.8038881770252473E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8823608668239274E-2</v>
+        <v>4.9016206730046918E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4267,7 +4268,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4290,6 +4291,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4308,8 +4312,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4345,24 +4349,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0322.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>10.18</v>
+        <v>10.14</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4372,7 +4379,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>康师傅控股</v>
       </c>
@@ -4401,11 +4408,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>57358.562144799995</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>57133.184690400005</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4428,11 +4435,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4500,10 +4507,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4550,7 +4557,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4640,7 +4647,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.648447483675934</v>
+        <v>24.551597002404126</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4672,7 +4679,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8905415577129671E-2</v>
+        <v>2.9019440885126237E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4691,10 +4698,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4702,22 +4709,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.2141016736749943</v>
+        <v>3.5222815607774844</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>5.7833407329601911</v>
+        <v>6.508311479562165</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.781296086676464</v>
-      </c>
-      <c r="G29" s="312">
+        <v>4.143860659738217</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.0289919417045148</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>5.6594012865757959</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5699,15 +5706,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5735,7 +5743,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11752,17 +11760,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0570506546599966E-2</v>
+        <v>4.0730547992543158E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0570506546599966E-2</v>
+        <v>4.0730547992543158E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0570506546599966E-2</v>
+        <v>4.0730547992543158E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11803,17 +11811,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7810831154259341E-2</v>
+        <v>5.8038881770252473E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8905415577129671E-2</v>
+        <v>2.9019440885126237E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8905415577129671E-2</v>
+        <v>2.9019440885126237E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11862,7 +11870,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11873,14 +11881,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6055370620023268</v>
+        <v>8.334783921962952</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.6055370620023268</v>
+        <v>8.334783921962952</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11901,14 +11909,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1217500294404505</v>
+        <v>5.6116363537895273</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1217500294404505</v>
+        <v>5.6116363537895273</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11951,21 +11959,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>21305472.158695579</v>
+        <v>23348319.172002599</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.781296086676464</v>
+        <v>4.143860659738217</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.781296086676464</v>
+        <v>4.143860659738217</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0289919417045148</v>
+        <v>5.6594012865757959</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12015,23 +12023,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.2141016736749943</v>
+        <v>3.5222815607774844</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.781296086676464</v>
+        <v>4.143860659738217</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>3.781296086676464</v>
+        <v>4.143860659738217</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>3.781296086676464</v>
+        <v>4.143860659738217</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.0289919417045148</v>
+        <v>5.6594012865757959</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12070,23 +12078,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.1644527148534549</v>
+        <v>2.371478785749535</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.5464149586511233</v>
+        <v>2.7899750420582765</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>2.5464149586511233</v>
+        <v>2.7899750420582765</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.5464149586511233</v>
+        <v>2.7899750420582765</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.3866431016641081</v>
+        <v>3.8103569687925889</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12125,23 +12133,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>2.6892771942642248</v>
+        <v>2.9468801732635095</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.1638555226637939</v>
+        <v>3.4669178508982466</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>3.1638555226637939</v>
+        <v>3.4669178508982466</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>3.1638555226637939</v>
+        <v>3.4669178508982466</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>4.2078175216843112</v>
+        <v>4.7348791276841924</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61ACF738-358F-44AF-A4CB-B268A68F7350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81A24F9B-A27B-4FA2-86F7-ABE1BD9C3957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2582,31 +2582,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3617,11 +3617,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8038881770252473E-2</v>
+        <v>5.7924632002988197E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9016206730046918E-2</v>
+        <v>4.8919718134121631E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4349,27 +4349,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0322.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>10.14</v>
+        <v>10.16</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4379,40 +4379,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>康师傅控股</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>5634436360</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>57133.184690400005</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>57245.8734176</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4435,11 +4435,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4590,7 +4590,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.551597002404126</v>
+        <v>24.60002224304003</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9019440885126237E-2</v>
+        <v>2.8962316001494098E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4698,10 +4698,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4709,22 +4709,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.5222815607774844</v>
+        <v>3.8908973134984355</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>6.508311479562165</v>
+        <v>6.7549316734015603</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.143860659738217</v>
-      </c>
-      <c r="G29" s="313">
+        <v>4.5775262511746302</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.6594012865757959</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>5.8738536290448353</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5707,15 +5707,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11088,7 +11088,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11099,11 +11099,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11115,11 +11115,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11760,17 +11760,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0730547992543158E-2</v>
+        <v>4.0650369748463352E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0730547992543158E-2</v>
+        <v>4.0650369748463352E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0730547992543158E-2</v>
+        <v>4.0650369748463352E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11811,17 +11811,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8038881770252473E-2</v>
+        <v>5.7924632002988197E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9019440885126237E-2</v>
+        <v>2.8962316001494098E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9019440885126237E-2</v>
+        <v>2.8962316001494098E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11874,21 +11874,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.334783921962952</v>
+        <v>8.0061220228434955</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.334783921962952</v>
+        <v>8.0061220228434955</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11909,14 +11909,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.6116363537895273</v>
+        <v>5.4521713967012309</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.6116363537895273</v>
+        <v>5.4521713967012309</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11959,21 +11959,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>23348319.172002599</v>
+        <v>25791780.348472826</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.143860659738217</v>
+        <v>4.5775262511746302</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.143860659738217</v>
+        <v>4.5775262511746302</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.6594012865757959</v>
+        <v>5.8738536290448353</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12023,23 +12023,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.5222815607774844</v>
+        <v>3.8908973134984355</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.143860659738217</v>
+        <v>4.5775262511746302</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>4.143860659738217</v>
+        <v>4.5775262511746302</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.143860659738217</v>
+        <v>4.5775262511746302</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.6594012865757959</v>
+        <v>5.8738536290448353</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12078,23 +12078,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.371478785749535</v>
+        <v>2.649702187854416</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.7899750420582765</v>
+        <v>3.1172966915934306</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>2.7899750420582765</v>
+        <v>3.1172966915934306</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.7899750420582765</v>
+        <v>3.1172966915934306</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.8103569687925889</v>
+        <v>4.0000960081937045</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12133,23 +12133,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>2.9468801732635095</v>
+        <v>3.2702997506764255</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.4669178508982466</v>
+        <v>3.8474114713840306</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>3.4669178508982466</v>
+        <v>3.8474114713840306</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>3.4669178508982466</v>
+        <v>3.8474114713840306</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>4.7348791276841924</v>
+        <v>4.9369748186192695</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19BB739B-F94F-49FE-9A4A-F9EE0A0A23A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F96960F1-7F53-41F8-811F-171B5C44A37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2595,6 +2595,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2611,9 +2614,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3640,11 +3640,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7922818904786594E-2</v>
+        <v>5.876550110990178E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.891818689861948E-2</v>
+        <v>4.9629866447118781E-2</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4377,27 +4377,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0322.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>10.16</v>
+        <v>10.02</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4407,7 +4407,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>康师傅控股</v>
       </c>
@@ -4436,11 +4436,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>57245.8734176</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>56457.052327199999</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4463,11 +4463,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4487,7 +4487,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.600792272139646</v>
+        <v>24.248023224179054</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8961409452393297E-2</v>
+        <v>2.938275055495089E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4726,10 +4726,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4737,22 +4737,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.9231794664932758</v>
+        <v>3.9343397699090663</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>6.8235979423021389</v>
+        <v>6.8430090918745368</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.6155052546979718</v>
-      </c>
-      <c r="G29" s="313">
+        <v>4.6286350234224312</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9335634280888172</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>5.9504426885865538</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5735,15 +5735,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11890,17 +11890,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0649097351734408E-2</v>
+        <v>4.1240475182440617E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0649097351734408E-2</v>
+        <v>4.1240475182440617E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0649097351734408E-2</v>
+        <v>4.1240475182440617E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11941,17 +11941,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7922818904786594E-2</v>
+        <v>5.876550110990178E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8961409452393297E-2</v>
+        <v>2.938275055495089E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8961409452393297E-2</v>
+        <v>2.938275055495089E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12011,14 +12011,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0725475373745912</v>
+        <v>8.0955115849347266</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0725475373745912</v>
+        <v>8.0955115849347266</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12039,14 +12039,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.4974147041931882</v>
+        <v>5.5095542690290111</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.4974147041931882</v>
+        <v>5.5095542690290111</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12089,21 +12089,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>26005770.626841314</v>
+        <v>26079749.473140799</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.6155052546979718</v>
+        <v>4.6286350234224312</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.6155052546979718</v>
+        <v>4.6286350234224312</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.9335634280888172</v>
+        <v>5.9504426885865538</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12153,23 +12153,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.9231794664932758</v>
+        <v>3.9343397699090663</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.6155052546979718</v>
+        <v>4.6286350234224312</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>4.6155052546979718</v>
+        <v>4.6286350234224312</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.6155052546979718</v>
+        <v>4.6286350234224312</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.9335634280888172</v>
+        <v>5.9504426885865538</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12208,23 +12208,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.6716899945693227</v>
+        <v>2.6775897048250461</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.1431646994933207</v>
+        <v>3.1501055350882896</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>3.1431646994933207</v>
+        <v>3.1501055350882896</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.1431646994933207</v>
+        <v>3.1501055350882896</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.040763920784177</v>
+        <v>4.0496868633384651</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12263,23 +12263,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>3.2974347305312994</v>
+        <v>3.3059647373670562</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>3.8793349770956462</v>
+        <v>3.8893702792553606</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>3.8793349770956462</v>
+        <v>3.8893702792553606</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>3.8793349770956462</v>
+        <v>3.8893702792553606</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>4.9871636744364967</v>
+        <v>5.0000647759625094</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0322.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0322.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F96960F1-7F53-41F8-811F-171B5C44A37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D39891BB-DEA9-4C13-809B-AACDDC4E0774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2595,31 +2595,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3640,11 +3640,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.876550110990178E-2</v>
+        <v>5.4470477409398185E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9629866447118781E-2</v>
+        <v>4.6002543466505473E-2</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4377,27 +4377,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0322.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>10.02</v>
+        <v>10.78</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4407,40 +4407,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>康师傅控股</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>5634436360</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>56457.052327199999</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>60739.223960799995</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4463,11 +4463,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4487,7 +4487,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.248023224179054</v>
+        <v>26.159991677391869</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.938275055495089E-2</v>
+        <v>2.7235238704699093E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4726,10 +4726,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4737,22 +4737,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.9343397699090663</v>
+        <v>3.8781588819524235</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>6.8430090918745368</v>
+        <v>6.7452935030946239</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.6286350234224312</v>
-      </c>
-      <c r="G29" s="314">
+        <v>4.5625398611204986</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9504426885865538</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>5.8654726113866298</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5735,15 +5735,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11218,7 +11218,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11229,11 +11229,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11245,11 +11245,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11890,17 +11890,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1240475182440617E-2</v>
+        <v>3.8226311855604503E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1240475182440617E-2</v>
+        <v>3.8226311855604503E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1240475182440617E-2</v>
+        <v>3.8226311855604503E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11941,17 +11941,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.876550110990178E-2</v>
+        <v>5.4470477409398185E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.938275055495089E-2</v>
+        <v>2.7235238704699093E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.938275055495089E-2</v>
+        <v>2.7235238704699093E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12011,14 +12011,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0955115849347266</v>
+        <v>7.9799107329738819</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0955115849347266</v>
+        <v>7.9799107329738819</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12039,14 +12039,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.5095542690290111</v>
+        <v>5.4485172885651521</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.5095542690290111</v>
+        <v>5.4485172885651521</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12089,21 +12089,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>26079749.473140799</v>
+        <v>25707340.487446684</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.6286350234224312</v>
+        <v>4.5625398611204986</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.6286350234224312</v>
+        <v>4.5625398611204986</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.9504426885865538</v>
+        <v>5.8654726113866298</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12153,23 +12153,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.9343397699090663</v>
+        <v>3.8781588819524235</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.6286350234224312</v>
+        <v>4.5625398611204986</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>4.6286350234224312</v>
+        <v>4.5625398611204986</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.6286350234224312</v>
+        <v>4.5625398611204986</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.9504426885865538</v>
+        <v>5.8654726113866298</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12208,23 +12208,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.6775897048250461</v>
+        <v>2.6479263268958473</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.1501055350882896</v>
+        <v>3.1152074434068795</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>3.1501055350882896</v>
+        <v>3.1152074434068795</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.1501055350882896</v>
+        <v>3.1152074434068795</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.0496868633384651</v>
+        <v>4.0048228605729745</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12263,23 +12263,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>3.3059647373670562</v>
+        <v>3.2630426044241352</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>3.8893702792553606</v>
+        <v>3.8388736522636888</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>3.8893702792553606</v>
+        <v>3.8388736522636888</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>3.8893702792553606</v>
+        <v>3.8388736522636888</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>5.0000647759625094</v>
+        <v>4.9351477359798022</v>
       </c>
       <c r="K106" s="75"/>
     </row>
